--- a/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>FCX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,221 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2798000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3911000</v>
+      </c>
+      <c r="F8" s="3">
         <v>3153000</v>
       </c>
-      <c r="E8" s="3">
-        <v>3546000</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
+        <v>7338000</v>
+      </c>
+      <c r="H8" s="3">
         <v>3792000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3684000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4908000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5168000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4868000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5041000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4310000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3711000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3341000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4377000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3877000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3132000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3398000</v>
+      </c>
+      <c r="F9" s="3">
         <v>3036000</v>
       </c>
-      <c r="E9" s="3">
-        <v>3357000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3321000</v>
-      </c>
       <c r="G9" s="3">
+        <v>6678000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3378000</v>
+      </c>
+      <c r="I9" s="3">
         <v>3301000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>3518000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3351000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3257000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>6073000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>6023000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>7629000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4778000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>3342000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3192000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-334000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>513000</v>
+      </c>
+      <c r="F10" s="3">
         <v>117000</v>
       </c>
-      <c r="E10" s="3">
-        <v>189000</v>
-      </c>
-      <c r="F10" s="3">
-        <v>471000</v>
-      </c>
       <c r="G10" s="3">
+        <v>660000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>414000</v>
+      </c>
+      <c r="I10" s="3">
         <v>383000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1390000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1817000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1611000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-1032000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-1713000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-3918000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-1437000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1035000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>685000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,52 +896,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F12" s="3">
         <v>25000</v>
       </c>
-      <c r="E12" s="3">
-        <v>31000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>27000</v>
-      </c>
       <c r="G12" s="3">
-        <v>33000</v>
+        <v>58000</v>
       </c>
       <c r="H12" s="3">
         <v>27000</v>
       </c>
       <c r="I12" s="3">
+        <v>33000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K12" s="3">
         <v>24000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>21000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>33000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>27000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>19000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>14000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>18000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -960,52 +992,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>21000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-9000</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-13000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-11000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>4000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>25000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,8 +1092,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1113,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3303000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3136000</v>
+      </c>
+      <c r="F17" s="3">
         <v>3212000</v>
       </c>
-      <c r="E17" s="3">
-        <v>3513000</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>6990000</v>
+      </c>
+      <c r="H17" s="3">
         <v>3477000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3369000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3593000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3495000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3409000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3549000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3371000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3029000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2744000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3699000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3503000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-505000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>775000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-59000</v>
       </c>
-      <c r="E18" s="3">
-        <v>33000</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>348000</v>
+      </c>
+      <c r="H18" s="3">
         <v>315000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>315000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1315000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1673000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1459000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1492000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>939000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>682000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>597000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>678000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>374000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,228 +1233,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-190000</v>
+      </c>
+      <c r="F20" s="3">
         <v>33000</v>
       </c>
-      <c r="E20" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>14000</v>
-      </c>
       <c r="G20" s="3">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="H20" s="3">
         <v>14000</v>
       </c>
       <c r="I20" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K20" s="3">
         <v>20000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>28000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-9000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>8000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-5000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-144000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>976000</v>
+      </c>
+      <c r="F21" s="3">
         <v>296000</v>
       </c>
-      <c r="E21" s="3">
-        <v>390000</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>1066000</v>
+      </c>
+      <c r="H21" s="3">
         <v>676000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>731000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1787000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>2135000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1938000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1950000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1348000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1125000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>994000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1266000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1007000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>219000</v>
+      </c>
+      <c r="F22" s="3">
         <v>123000</v>
       </c>
-      <c r="E22" s="3">
-        <v>132000</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
+        <v>278000</v>
+      </c>
+      <c r="H22" s="3">
         <v>146000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>509000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>143000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>142000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>151000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>168000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>304000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>162000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>167000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>181000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>187000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-612000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>366000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-149000</v>
       </c>
-      <c r="E23" s="3">
-        <v>-94000</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>89000</v>
+      </c>
+      <c r="H23" s="3">
         <v>183000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-181000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1186000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1551000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1336000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1325000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>626000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>513000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>438000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>492000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>177000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>329000</v>
+      </c>
+      <c r="F24" s="3">
         <v>91000</v>
       </c>
-      <c r="E24" s="3">
-        <v>-15000</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>90000</v>
+      </c>
+      <c r="H24" s="3">
         <v>105000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-429000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>522000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>515000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>506000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>529000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>387000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>186000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>174000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>292000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-114000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1529,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-552000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-240000</v>
       </c>
-      <c r="E26" s="3">
-        <v>-79000</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H26" s="3">
         <v>78000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>248000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>664000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1036000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>830000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>796000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>239000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>327000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>264000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>200000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-494000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-211000</v>
       </c>
-      <c r="E27" s="3">
-        <v>-75000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>27000</v>
-      </c>
       <c r="G27" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>30000</v>
+      </c>
+      <c r="I27" s="3">
         <v>359000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>556000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>870000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>699000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>631000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>274000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>257000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>190000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>313000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,52 +1679,64 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>1000</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
       </c>
       <c r="F29" s="3">
         <v>1000</v>
       </c>
       <c r="G29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I29" s="3">
         <v>127000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>-4000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-4000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-11000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>409000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>3000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>8000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>35000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-21000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1779,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,96 +1829,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>190000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-33000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-14000</v>
-      </c>
       <c r="G32" s="3">
-        <v>-13000</v>
+        <v>-19000</v>
       </c>
       <c r="H32" s="3">
         <v>-14000</v>
       </c>
       <c r="I32" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-20000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-28000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>9000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-8000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>5000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-494000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-210000</v>
       </c>
-      <c r="E33" s="3">
-        <v>-75000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>28000</v>
-      </c>
       <c r="G33" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>31000</v>
+      </c>
+      <c r="I33" s="3">
         <v>486000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>552000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>866000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>688000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1040000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>277000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>265000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>225000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>292000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1979,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-494000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-210000</v>
       </c>
-      <c r="E35" s="3">
-        <v>-75000</v>
-      </c>
-      <c r="F35" s="3">
-        <v>28000</v>
-      </c>
       <c r="G35" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>31000</v>
+      </c>
+      <c r="I35" s="3">
         <v>486000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>552000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>866000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>688000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1040000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>277000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>265000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>225000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>292000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2108,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,52 +2128,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1602000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2020000</v>
+      </c>
+      <c r="F41" s="3">
         <v>2247000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2623000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2833000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4217000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4556000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3859000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3702000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4526000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4957000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4667000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4001000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4245000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1108000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2046,184 +2224,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1093000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1101000</v>
+      </c>
+      <c r="F43" s="3">
         <v>994000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>944000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1121000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1319000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1282000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1302000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1444000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1514000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1546000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1434000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1399000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1975000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3854000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4073000</v>
+      </c>
+      <c r="F44" s="3">
         <v>4434000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>4377000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>4461000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>4759000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>4047000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>4176000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3885000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>4149000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3857000</v>
-      </c>
-      <c r="M44" s="3">
-        <v>3642000</v>
-      </c>
-      <c r="N44" s="3">
-        <v>3763000</v>
       </c>
       <c r="O44" s="3">
         <v>3642000</v>
       </c>
       <c r="P44" s="3">
+        <v>3763000</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>3642000</v>
+      </c>
+      <c r="R44" s="3">
         <v>3685000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>808000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>721000</v>
+      </c>
+      <c r="F45" s="3">
         <v>672000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>786000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>630000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>425000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1036000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1006000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1075000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>945000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>790000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>674000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>604000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>573000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7357000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>7915000</v>
+      </c>
+      <c r="F46" s="3">
         <v>8347000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>8730000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>9045000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>10720000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>10921000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>10343000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>10106000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>10626000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>11150000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>10417000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>9767000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>10435000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>11505000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2266,52 +2474,64 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29899000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>29584000</v>
+      </c>
+      <c r="F48" s="3">
         <v>29330000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>28841000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>28497000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>28010000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>23013000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>22923000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>22792000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>23002000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>22934000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>23115000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>23174000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>23293000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>26038000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2354,8 +2574,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2624,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,52 +2674,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2963000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3310000</v>
+      </c>
+      <c r="F52" s="3">
         <v>3266000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3515000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3517000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3486000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3815000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3762000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3739000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3682000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3243000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3511000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3635000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>3589000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>3857000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2774,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>40219000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>40809000</v>
+      </c>
+      <c r="F54" s="3">
         <v>40943000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>41086000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>41059000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>42216000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>37749000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>37028000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>36637000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>37302000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>37327000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>37043000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>36576000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>37317000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>41400000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2848,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,272 +2868,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2374000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2532000</v>
+      </c>
+      <c r="F57" s="3">
         <v>2686000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2645000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2553000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2608000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2383000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2420000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2208000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2441000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2098000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1880000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1780000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2393000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2347000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F58" s="3">
         <v>4000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>4000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>17000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>483000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1414000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2215000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2216000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2228000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1232000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>802000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>691000</v>
+        <v>524000</v>
       </c>
       <c r="E59" s="3">
-        <v>637000</v>
+        <v>672000</v>
       </c>
       <c r="F59" s="3">
         <v>691000</v>
       </c>
       <c r="G59" s="3">
+        <v>637000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>691000</v>
+      </c>
+      <c r="I59" s="3">
         <v>704000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1464000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1375000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1653000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1382000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1204000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>848000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>834000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>640000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1339000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3143000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3209000</v>
+      </c>
+      <c r="F60" s="3">
         <v>3381000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3286000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3247000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3329000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3851000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3799000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4344000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4914000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5517000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4944000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4842000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4265000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4488000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9829000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>9821000</v>
+      </c>
+      <c r="F61" s="3">
         <v>9915000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>9912000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>9902000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>11124000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>11123000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>11123000</v>
       </c>
       <c r="J61" s="3">
         <v>11123000</v>
       </c>
       <c r="K61" s="3">
+        <v>11123000</v>
+      </c>
+      <c r="L61" s="3">
+        <v>11123000</v>
+      </c>
+      <c r="M61" s="3">
         <v>11815000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>12567000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>13138000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>13135000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>14795000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>18180000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10284000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>10331000</v>
+      </c>
+      <c r="F62" s="3">
         <v>10105000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>10071000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>10069000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>9871000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>9321000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>9264000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>9244000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>9277000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>9013000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>8968000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>9012000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>9000000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>8892000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3214,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3264,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3314,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31364000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>31511000</v>
+      </c>
+      <c r="F66" s="3">
         <v>31499000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>31377000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>31276000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>32418000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>27772000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>27554000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>27981000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>29325000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>30354000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>30370000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>30258000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>31266000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>36668000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3388,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3434,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,8 +3484,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,8 +3534,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3584,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12771000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-12280000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-12289000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-12082000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-12010000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-12041000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-12526000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13161000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-14030000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-14722000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-15763000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-16043000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-16311000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-16540000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-16832000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3684,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3734,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3784,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8855000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>9298000</v>
+      </c>
+      <c r="F76" s="3">
         <v>9444000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>9709000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>9783000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>9798000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>9977000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>9474000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8656000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>7977000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6973000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6673000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6318000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>6051000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4732000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3884,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-494000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-210000</v>
       </c>
-      <c r="E81" s="3">
-        <v>-75000</v>
-      </c>
-      <c r="F81" s="3">
-        <v>28000</v>
-      </c>
       <c r="G81" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>31000</v>
+      </c>
+      <c r="I81" s="3">
         <v>486000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>552000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>866000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>688000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1040000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>277000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>265000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>225000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>292000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,52 +4013,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>341000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>391000</v>
+      </c>
+      <c r="F83" s="3">
         <v>322000</v>
       </c>
-      <c r="E83" s="3">
-        <v>352000</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
+        <v>699000</v>
+      </c>
+      <c r="H83" s="3">
         <v>347000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>403000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>458000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>442000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>451000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>457000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>418000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>450000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>389000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>593000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>643000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +4109,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +4159,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4209,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4259,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4309,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>170000</v>
+      </c>
+      <c r="F89" s="3">
         <v>224000</v>
       </c>
-      <c r="E89" s="3">
-        <v>554000</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>1088000</v>
+      </c>
+      <c r="H89" s="3">
         <v>534000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-62000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1247000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1309000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1369000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1664000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1189000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1037000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>792000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1135000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>980000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,52 +4383,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-5000</v>
       </c>
-      <c r="E91" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-4000</v>
-      </c>
       <c r="G91" s="3">
-        <v>-3000</v>
+        <v>-6000</v>
       </c>
       <c r="H91" s="3">
         <v>-4000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1000</v>
+        <v>-3000</v>
       </c>
       <c r="J91" s="3">
-        <v>-1000</v>
+        <v>-4000</v>
       </c>
       <c r="K91" s="3">
         <v>-1000</v>
       </c>
       <c r="L91" s="3">
-        <v>-2000</v>
+        <v>-1000</v>
       </c>
       <c r="M91" s="3">
         <v>-1000</v>
       </c>
       <c r="N91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P91" s="3">
         <v>-688000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-329000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-494000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4479,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4529,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-546000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-278000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-658000</v>
       </c>
-      <c r="E94" s="3">
-        <v>-621000</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>-1167000</v>
+      </c>
+      <c r="H94" s="3">
         <v>-546000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-3546000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-502000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-478000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-492000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-367000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-251000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-342000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-361000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>4444000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-359000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,52 +4603,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-72000</v>
+        <v>-73000</v>
       </c>
       <c r="E96" s="3">
         <v>-73000</v>
       </c>
       <c r="F96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-146000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-73000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-73000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-72000</v>
       </c>
       <c r="I96" s="3">
         <v>-73000</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-72000</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-73000</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-1000</v>
       </c>
       <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-1000</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4699,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4749,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,52 +4799,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-126000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-60000</v>
       </c>
-      <c r="E100" s="3">
-        <v>-39000</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>-1370000</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1331000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>3240000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-63000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-689000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1588000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-583000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-25000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-679000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2418000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4373,78 +4869,90 @@
       <c r="F101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I101" s="3">
         <v>-55000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>11000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>12000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>32000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>45000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-52000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>8000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-6000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-411000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-234000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-494000</v>
       </c>
-      <c r="E102" s="3">
-        <v>-106000</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>-1449000</v>
+      </c>
+      <c r="H102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-423000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>693000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>154000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-679000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-436000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>297000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>669000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-240000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>3155000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>756000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>FCX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,233 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3054000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2798000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3911000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3153000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7338000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3792000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3684000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4908000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5168000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4868000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5041000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4310000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3711000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3341000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4377000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3877000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2439000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3132000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3398000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3036000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6678000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3378000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3301000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3518000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3351000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3257000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6073000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6023000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7629000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4778000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3342000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3192000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>615000</v>
+      </c>
+      <c r="E10" s="3">
         <v>-334000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>513000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>117000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>660000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>414000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>383000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1390000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1817000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1611000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-1032000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-1713000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-3918000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-1437000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1035000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>685000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,58 +910,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E12" s="3">
         <v>16000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>21000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>58000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>27000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>33000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>27000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>24000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>33000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>27000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>19000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>14000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>18000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -998,58 +1014,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E14" s="3">
         <v>32000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>21000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>6000</v>
       </c>
       <c r="H14" s="3">
         <v>6000</v>
       </c>
       <c r="I14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-9000</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-13000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-11000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>25000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1098,8 +1120,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2742000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3303000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3136000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3212000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6990000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3477000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3369000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3593000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3495000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3409000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3549000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3371000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3029000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2744000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3699000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3503000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-505000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>775000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-59000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>348000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>315000</v>
       </c>
       <c r="I18" s="3">
         <v>315000</v>
       </c>
       <c r="J18" s="3">
+        <v>315000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1315000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1673000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1459000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1492000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>939000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>682000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>597000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>678000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>374000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,8 +1267,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1244,249 +1277,264 @@
         <v>20000</v>
       </c>
       <c r="E20" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-190000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>33000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>19000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>14000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>13000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>20000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>28000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>8000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>690000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-144000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>976000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>296000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1066000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>676000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>731000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1787000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2135000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1938000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1950000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1348000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1125000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>994000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1266000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1007000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E22" s="3">
         <v>127000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>219000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>123000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>278000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>146000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>509000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>143000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>142000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>151000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>168000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>304000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>162000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>167000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>181000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>187000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-612000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>366000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-149000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>89000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>183000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-181000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1186000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1551000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1336000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1325000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>626000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>513000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>438000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>492000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>177000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-60000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>329000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>91000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>90000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>105000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-429000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>522000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>515000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>506000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>529000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>387000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>186000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>174000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>292000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-114000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-552000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>37000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-240000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>78000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>248000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>664000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1036000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>830000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>796000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>239000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>327000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>264000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-494000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-211000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-42000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>30000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>359000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>556000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>870000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>699000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>631000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>274000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>257000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>190000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>313000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,8 +1742,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1694,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
         <v>1000</v>
@@ -1706,37 +1766,40 @@
         <v>1000</v>
       </c>
       <c r="I29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J29" s="3">
         <v>127000</v>
-      </c>
-      <c r="J29" s="3">
-        <v>-4000</v>
       </c>
       <c r="K29" s="3">
         <v>-4000</v>
       </c>
       <c r="L29" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="M29" s="3">
         <v>-11000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>409000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>3000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>8000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>35000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-21000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,8 +1901,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1844,99 +1913,105 @@
         <v>-20000</v>
       </c>
       <c r="E32" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="F32" s="3">
         <v>190000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-33000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-19000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-14000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-13000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-20000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-28000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-494000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-210000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-41000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>31000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>486000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>552000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>866000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>688000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1040000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>277000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>265000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>225000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>292000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-494000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-210000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-41000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>31000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>486000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>552000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>866000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>688000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1040000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>277000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>265000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>225000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>292000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,58 +2215,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1465000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1602000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2020000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2247000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2623000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2833000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4217000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4556000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3859000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3702000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4526000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4957000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4667000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4001000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4245000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1108000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2230,208 +2319,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1363000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1093000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1101000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>994000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>944000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1121000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1319000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1282000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1302000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1444000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1514000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1546000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1434000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1399000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1975000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3810000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3854000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4073000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4434000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4377000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4461000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4759000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4047000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4176000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3885000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4149000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3857000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3642000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3763000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3642000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3685000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>517000</v>
+      </c>
+      <c r="E45" s="3">
         <v>808000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>721000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>672000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>786000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>630000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>425000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1036000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1006000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1075000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>945000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>790000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>674000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>604000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>573000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7155000</v>
+      </c>
+      <c r="E46" s="3">
         <v>7357000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7915000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8347000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8730000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9045000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10720000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10921000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10343000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10106000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10626000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11150000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10417000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9767000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10435000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11505000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2480,58 +2584,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29936000</v>
+      </c>
+      <c r="E48" s="3">
         <v>29899000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29584000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29330000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>28841000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>28497000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>28010000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>23013000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22923000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22792000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23002000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22934000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>23115000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>23174000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>23293000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>26038000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2580,8 +2690,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +2796,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3139000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2963000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3310000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3266000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3515000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3517000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3486000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3815000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3762000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3739000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3682000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3243000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3511000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3635000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3589000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3857000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>40230000</v>
+      </c>
+      <c r="E54" s="3">
         <v>40219000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>40809000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>40943000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>41086000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>41059000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>42216000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>37749000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>37028000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>36637000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>37302000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>37327000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37043000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>36576000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37317000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>41400000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,231 +2999,244 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2471000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2374000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2532000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2686000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2645000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2553000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2608000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2383000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2420000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2208000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2441000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2098000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1880000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1780000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2393000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2347000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E58" s="3">
         <v>245000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>4000</v>
       </c>
       <c r="G58" s="3">
         <v>4000</v>
       </c>
       <c r="H58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I58" s="3">
         <v>3000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>17000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>4000</v>
       </c>
       <c r="K58" s="3">
         <v>4000</v>
       </c>
       <c r="L58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M58" s="3">
         <v>483000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1414000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2215000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2216000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2228000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1232000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>802000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E59" s="3">
         <v>524000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>672000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>691000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>637000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>691000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>704000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1464000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1375000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1653000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1382000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1204000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>848000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>834000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>640000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1339000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2906000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3143000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3209000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3381000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3286000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3247000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3329000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3851000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3799000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4344000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4914000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5517000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4944000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4842000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4265000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4488000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9824000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9829000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9821000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9915000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9912000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9902000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>11124000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>11123000</v>
       </c>
       <c r="K61" s="3">
         <v>11123000</v>
@@ -3103,75 +3245,81 @@
         <v>11123000</v>
       </c>
       <c r="M61" s="3">
+        <v>11123000</v>
+      </c>
+      <c r="N61" s="3">
         <v>11815000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12567000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13138000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13135000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14795000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18180000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10345000</v>
+      </c>
+      <c r="E62" s="3">
         <v>10284000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10331000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10105000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10071000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10069000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9871000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9321000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9264000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9244000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9277000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9013000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8968000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9012000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9000000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8892000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31276000</v>
+      </c>
+      <c r="E66" s="3">
         <v>31364000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>31511000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>31499000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>31377000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>31276000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>32418000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>27772000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27554000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>27981000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>29325000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>30354000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>30370000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>30258000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>31266000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>36668000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3654,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12718000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12771000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12280000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12289000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12082000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12010000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12041000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12526000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13161000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14030000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14722000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15763000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16043000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16311000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16540000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-16832000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8954000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8855000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9298000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9444000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9709000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9783000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9798000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9977000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9474000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8656000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7977000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6973000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6673000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6318000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6051000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4732000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-494000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-210000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-41000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>31000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>486000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>552000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>866000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>688000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1040000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>277000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>265000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>225000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>292000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4212,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>358000</v>
+      </c>
+      <c r="E83" s="3">
         <v>341000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>391000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>322000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>699000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>347000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>403000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>458000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>442000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>451000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>457000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>418000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>450000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>389000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>593000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>643000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>491000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-38000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>170000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>224000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1088000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>534000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-62000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1247000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1309000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1369000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1664000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1189000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1037000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>792000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1135000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>980000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,34 +4604,35 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-1000</v>
       </c>
       <c r="L91" s="3">
         <v>-1000</v>
@@ -4421,22 +4641,25 @@
         <v>-1000</v>
       </c>
       <c r="N91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O91" s="3">
         <v>-2000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-688000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-329000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-494000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-480000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-546000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-278000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-658000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1167000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-546000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3546000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-502000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-478000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-492000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-367000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-251000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-342000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-361000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>4444000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-359000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,38 +4837,39 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-73000</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>-73000</v>
       </c>
       <c r="F96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-72000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-146000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-73000</v>
       </c>
       <c r="I96" s="3">
         <v>-73000</v>
       </c>
       <c r="J96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-72000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-73000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4644,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-1000</v>
@@ -4653,10 +4886,13 @@
         <v>-1000</v>
       </c>
       <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-1000</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,58 +5047,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-149000</v>
+      </c>
+      <c r="E100" s="3">
         <v>173000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-126000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-60000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1370000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1331000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3240000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-63000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-689000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1588000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-583000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-25000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-679000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2418000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4875,84 +5123,90 @@
       <c r="H101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J101" s="3">
         <v>-55000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>11000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>12000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>32000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>45000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-52000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>8000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-138000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-411000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-234000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-494000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1449000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-423000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>693000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>154000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-679000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-436000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>297000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>669000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-240000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3155000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>756000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>FCX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,245 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3851000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3054000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2798000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3911000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3153000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7338000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3792000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3684000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4908000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5168000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4868000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5041000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4310000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3711000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3341000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4377000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3877000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2835000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2439000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3132000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3398000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3036000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6678000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3378000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3301000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3518000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3351000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3257000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6073000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6023000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7629000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4778000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3342000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3192000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1016000</v>
+      </c>
+      <c r="E10" s="3">
         <v>615000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-334000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>513000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>117000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>660000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>414000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>383000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1390000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1817000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1611000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-1032000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-1713000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-3918000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-1437000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1035000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>685000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,61 +923,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E12" s="3">
         <v>11000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>16000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>21000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>58000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>27000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>33000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>27000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>24000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>33000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>27000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>19000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>14000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>18000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1017,61 +1033,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E14" s="3">
         <v>205000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>32000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>21000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>6000</v>
       </c>
       <c r="I14" s="3">
         <v>6000</v>
       </c>
       <c r="J14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-9000</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-13000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-11000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>25000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1123,8 +1145,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1166,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3030000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2742000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3303000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3136000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3212000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6990000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3477000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3369000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3593000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3495000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3409000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3549000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3371000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3029000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2744000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3699000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3503000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>821000</v>
+      </c>
+      <c r="E18" s="3">
         <v>312000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-505000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>775000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-59000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>348000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>315000</v>
       </c>
       <c r="J18" s="3">
         <v>315000</v>
       </c>
       <c r="K18" s="3">
+        <v>315000</v>
+      </c>
+      <c r="L18" s="3">
         <v>1315000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1673000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1459000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1492000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>939000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>682000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>597000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>678000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>374000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,273 +1300,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="E20" s="3">
         <v>20000</v>
       </c>
       <c r="F20" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-190000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>33000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>19000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>14000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>13000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>20000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>28000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1237000</v>
+      </c>
+      <c r="E21" s="3">
         <v>690000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-144000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>976000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>296000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1066000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>676000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>731000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1787000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2135000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1938000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1950000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1348000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1125000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>994000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1266000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1007000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E22" s="3">
         <v>115000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>127000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>219000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>123000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>278000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>146000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>509000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>143000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>142000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>151000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>168000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>304000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>162000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>167000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>181000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>187000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>723000</v>
+      </c>
+      <c r="E23" s="3">
         <v>217000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-612000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>366000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-149000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>89000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>183000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-181000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1186000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1551000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1336000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1325000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>626000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>513000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>438000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>492000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>177000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E24" s="3">
         <v>96000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-60000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>329000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>91000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>90000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>105000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-429000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>522000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>515000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>506000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>529000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>387000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>186000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>174000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>292000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-114000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1634,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>426000</v>
+      </c>
+      <c r="E26" s="3">
         <v>121000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-552000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>37000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-240000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>78000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>248000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>664000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1036000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>830000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>796000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>239000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>327000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>264000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>200000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E27" s="3">
         <v>50000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-494000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>11000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-211000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-42000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>30000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>359000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>556000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>870000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>699000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>631000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>274000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>257000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>190000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>313000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1802,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1757,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
         <v>1000</v>
@@ -1769,37 +1829,40 @@
         <v>1000</v>
       </c>
       <c r="J29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K29" s="3">
         <v>127000</v>
-      </c>
-      <c r="K29" s="3">
-        <v>-4000</v>
       </c>
       <c r="L29" s="3">
         <v>-4000</v>
       </c>
       <c r="M29" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="N29" s="3">
         <v>-11000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>409000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>3000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>8000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>35000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-21000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +1970,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-20000</v>
+        <v>-22000</v>
       </c>
       <c r="E32" s="3">
         <v>-20000</v>
       </c>
       <c r="F32" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="G32" s="3">
         <v>190000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-33000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-19000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-14000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-13000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-20000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-28000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E33" s="3">
         <v>50000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-494000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-210000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-41000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>31000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>486000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>552000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>866000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>688000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1040000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>277000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>265000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>225000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>292000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2138,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E35" s="3">
         <v>50000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-494000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-210000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-41000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>31000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>486000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>552000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>866000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>688000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1040000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>277000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>265000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>225000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>292000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2279,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,61 +2301,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2403000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1465000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1602000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2020000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2247000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2623000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2833000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4217000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4556000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3859000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3702000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4526000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4957000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4667000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4001000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4245000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1108000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2322,220 +2411,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1357000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1363000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1093000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1101000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>994000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>944000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1121000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1319000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1282000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1302000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1444000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1514000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1546000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1434000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1399000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1975000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3892000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3810000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3854000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4073000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4434000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4377000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4461000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4759000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4047000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4176000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3885000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4149000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3857000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3642000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3763000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3642000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3685000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>419000</v>
+      </c>
+      <c r="E45" s="3">
         <v>517000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>808000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>721000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>672000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>786000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>630000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>425000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1036000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1006000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1075000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>945000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>790000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>674000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>604000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>573000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8071000</v>
+      </c>
+      <c r="E46" s="3">
         <v>7155000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7357000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7915000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8347000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8730000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9045000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10720000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10921000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10343000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10106000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10626000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11150000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10417000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9767000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10435000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>11505000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2587,61 +2691,67 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29911000</v>
+      </c>
+      <c r="E48" s="3">
         <v>29936000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29899000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29584000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29330000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>28841000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>28497000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>28010000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23013000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22923000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22792000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>23002000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>22934000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>23115000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>23174000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>23293000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>26038000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2693,8 +2803,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2859,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,61 +2915,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3117000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3139000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2963000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3310000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3266000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3515000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3517000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3486000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3815000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3762000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3739000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3682000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3243000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3511000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3635000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3589000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3857000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3027,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>41099000</v>
+      </c>
+      <c r="E54" s="3">
         <v>40230000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>40219000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>40809000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>40943000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>41086000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>41059000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>42216000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>37749000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>37028000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>36637000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>37302000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37327000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>37043000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>36576000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37317000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>41400000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3107,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,246 +3129,259 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2533000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2471000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2374000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2532000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2686000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2645000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2553000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2608000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2383000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2420000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2208000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2441000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2098000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1880000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1780000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2393000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2347000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E58" s="3">
         <v>90000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>245000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>4000</v>
       </c>
       <c r="H58" s="3">
         <v>4000</v>
       </c>
       <c r="I58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J58" s="3">
         <v>3000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>17000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>4000</v>
       </c>
       <c r="L58" s="3">
         <v>4000</v>
       </c>
       <c r="M58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N58" s="3">
         <v>483000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1414000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2215000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2216000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2228000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1232000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>802000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>516000</v>
+      </c>
+      <c r="E59" s="3">
         <v>345000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>524000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>672000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>691000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>637000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>691000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>704000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1464000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1375000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1653000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1382000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1204000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>848000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>834000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>640000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1339000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3096000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2906000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3143000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3209000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3381000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3286000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3247000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3329000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3851000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3799000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4344000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4914000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5517000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4944000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4842000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4265000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4488000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9983000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9824000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9829000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9821000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9915000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9912000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9902000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>11124000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>11123000</v>
       </c>
       <c r="L61" s="3">
         <v>11123000</v>
@@ -3248,78 +3390,84 @@
         <v>11123000</v>
       </c>
       <c r="N61" s="3">
+        <v>11123000</v>
+      </c>
+      <c r="O61" s="3">
         <v>11815000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12567000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13138000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>13135000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14795000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>18180000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10458000</v>
+      </c>
+      <c r="E62" s="3">
         <v>10345000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10284000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10331000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10105000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10071000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10069000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9871000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9321000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9264000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9244000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9277000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9013000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8968000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9012000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9000000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8892000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3575,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3631,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31863000</v>
+      </c>
+      <c r="E66" s="3">
         <v>31276000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>31364000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>31511000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>31499000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>31377000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>31276000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>32418000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27772000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>27554000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>27981000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>29325000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>30354000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>30370000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>30258000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>31266000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>36668000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3711,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3821,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3710,8 +3877,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +3933,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12389000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12718000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12771000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12280000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12289000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12082000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12010000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12041000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12526000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13161000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14030000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14722000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15763000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16043000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16311000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-16540000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-16832000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4045,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4157,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9236000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8954000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8855000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9298000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9444000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9709000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9783000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9798000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9977000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9474000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8656000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7977000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6973000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6673000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6318000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6051000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4732000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4269,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E81" s="3">
         <v>50000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-494000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-210000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-41000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>31000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>486000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>552000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>866000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>688000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1040000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>277000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>265000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>225000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>292000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,61 +4410,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>394000</v>
+      </c>
+      <c r="E83" s="3">
         <v>358000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>341000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>391000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>322000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>699000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>347000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>403000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>458000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>442000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>451000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>457000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>418000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>450000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>389000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>593000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>643000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4520,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4576,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4632,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4688,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4744,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1237000</v>
+      </c>
+      <c r="E89" s="3">
         <v>491000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-38000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>170000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>224000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1088000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>534000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-62000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1247000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1309000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1369000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1664000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1189000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1037000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>792000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1135000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>980000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,37 +4824,38 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-1000</v>
       </c>
       <c r="M91" s="3">
         <v>-1000</v>
@@ -4644,22 +4864,25 @@
         <v>-1000</v>
       </c>
       <c r="O91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P91" s="3">
         <v>-2000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-688000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-329000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-494000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +4934,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +4990,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-407000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-480000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-546000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-278000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-658000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1167000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-546000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3546000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-502000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-478000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-492000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-367000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-251000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-342000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-361000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>4444000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-359000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,8 +5070,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4847,32 +5080,32 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-73000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>-73000</v>
       </c>
       <c r="G96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-72000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-146000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-73000</v>
       </c>
       <c r="J96" s="3">
         <v>-73000</v>
       </c>
       <c r="K96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-72000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-73000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -4880,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-1000</v>
@@ -4889,10 +5122,13 @@
         <v>-1000</v>
       </c>
       <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-1000</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5180,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5236,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,61 +5292,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-149000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>173000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-126000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-60000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1370000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1331000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3240000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-63000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-689000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1588000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-583000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-679000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2418000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5126,87 +5374,93 @@
       <c r="I101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K101" s="3">
         <v>-55000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>11000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>12000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>32000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>45000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-52000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>8000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-6000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>926000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-138000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-411000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-234000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-494000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1449000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-423000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>693000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>154000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-679000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-436000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>297000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>669000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-240000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3155000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>756000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>FCX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4495000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3851000</v>
       </c>
-      <c r="E8" s="3">
-        <v>3054000</v>
-      </c>
       <c r="F8" s="3">
+        <v>5852000</v>
+      </c>
+      <c r="G8" s="3">
         <v>2798000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3911000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3153000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7338000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3792000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3684000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4908000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5168000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4868000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5041000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4310000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3711000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3341000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4377000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3877000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3066000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2835000</v>
       </c>
-      <c r="E9" s="3">
-        <v>2439000</v>
-      </c>
       <c r="F9" s="3">
+        <v>5381000</v>
+      </c>
+      <c r="G9" s="3">
         <v>3132000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3398000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3036000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6678000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3378000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3301000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3518000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3351000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3257000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6073000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6023000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7629000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4778000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3342000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3192000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1429000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1016000</v>
       </c>
-      <c r="E10" s="3">
-        <v>615000</v>
-      </c>
       <c r="F10" s="3">
+        <v>471000</v>
+      </c>
+      <c r="G10" s="3">
         <v>-334000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>513000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>117000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>660000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>414000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>383000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1390000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1817000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1611000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-1032000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-1713000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-3918000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-1437000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1035000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>685000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,64 +936,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E12" s="3">
         <v>7000</v>
       </c>
-      <c r="E12" s="3">
-        <v>11000</v>
-      </c>
       <c r="F12" s="3">
+        <v>27000</v>
+      </c>
+      <c r="G12" s="3">
         <v>16000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>58000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>27000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>33000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>27000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>24000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>33000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>27000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>19000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>14000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>18000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1036,64 +1052,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>93000</v>
       </c>
-      <c r="E14" s="3">
-        <v>205000</v>
-      </c>
       <c r="F14" s="3">
+        <v>263000</v>
+      </c>
+      <c r="G14" s="3">
         <v>32000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>21000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>6000</v>
       </c>
       <c r="J14" s="3">
         <v>6000</v>
       </c>
       <c r="K14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-9000</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-13000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>25000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1148,8 +1170,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,120 +1192,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2787000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3030000</v>
       </c>
-      <c r="E17" s="3">
-        <v>2742000</v>
-      </c>
       <c r="F17" s="3">
+        <v>6045000</v>
+      </c>
+      <c r="G17" s="3">
         <v>3303000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3136000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3212000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6990000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3477000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3369000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3593000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3495000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3409000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3549000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3371000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3029000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2744000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3699000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3503000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1708000</v>
+      </c>
+      <c r="E18" s="3">
         <v>821000</v>
       </c>
-      <c r="E18" s="3">
-        <v>312000</v>
-      </c>
       <c r="F18" s="3">
+        <v>-193000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-505000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>775000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-59000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>348000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>315000</v>
       </c>
       <c r="K18" s="3">
         <v>315000</v>
       </c>
       <c r="L18" s="3">
+        <v>315000</v>
+      </c>
+      <c r="M18" s="3">
         <v>1315000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1673000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1459000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1492000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>939000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>682000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>597000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>678000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>374000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1301,288 +1333,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>22000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>40000</v>
+      </c>
+      <c r="G20" s="3">
         <v>20000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
+        <v>-190000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>33000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>14000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>13000</v>
+      </c>
+      <c r="M20" s="3">
+        <v>14000</v>
+      </c>
+      <c r="N20" s="3">
         <v>20000</v>
       </c>
-      <c r="G20" s="3">
-        <v>-190000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>33000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>19000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>14000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>13000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>14000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>20000</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>28000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>8000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2140000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1237000</v>
       </c>
-      <c r="E21" s="3">
-        <v>690000</v>
-      </c>
       <c r="F21" s="3">
+        <v>546000</v>
+      </c>
+      <c r="G21" s="3">
         <v>-144000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>976000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>296000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1066000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>676000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>731000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1787000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2135000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1938000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1950000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1348000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1125000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>994000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1266000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1007000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E22" s="3">
         <v>120000</v>
       </c>
-      <c r="E22" s="3">
-        <v>115000</v>
-      </c>
       <c r="F22" s="3">
+        <v>242000</v>
+      </c>
+      <c r="G22" s="3">
         <v>127000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>219000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>123000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>278000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>146000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>509000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>143000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>142000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>151000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>168000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>304000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>162000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>167000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>181000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>187000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1469000</v>
+      </c>
+      <c r="E23" s="3">
         <v>723000</v>
       </c>
-      <c r="E23" s="3">
-        <v>217000</v>
-      </c>
       <c r="F23" s="3">
+        <v>-395000</v>
+      </c>
+      <c r="G23" s="3">
         <v>-612000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>366000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-149000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>89000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>183000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-181000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1186000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1551000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1336000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1325000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>626000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>513000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>438000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>492000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>177000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>611000</v>
+      </c>
+      <c r="E24" s="3">
         <v>297000</v>
       </c>
-      <c r="E24" s="3">
-        <v>96000</v>
-      </c>
       <c r="F24" s="3">
+        <v>36000</v>
+      </c>
+      <c r="G24" s="3">
         <v>-60000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>329000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>91000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>90000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>105000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-429000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>522000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>515000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>506000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>529000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>387000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>186000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>174000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>292000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-114000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1637,120 +1685,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>858000</v>
+      </c>
+      <c r="E26" s="3">
         <v>426000</v>
       </c>
-      <c r="E26" s="3">
-        <v>121000</v>
-      </c>
       <c r="F26" s="3">
+        <v>-431000</v>
+      </c>
+      <c r="G26" s="3">
         <v>-552000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>37000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-240000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>78000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>248000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>664000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1036000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>830000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>796000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>239000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>327000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>264000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>200000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>708000</v>
+      </c>
+      <c r="E27" s="3">
         <v>326000</v>
       </c>
-      <c r="E27" s="3">
-        <v>50000</v>
-      </c>
       <c r="F27" s="3">
+        <v>-438000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-494000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-211000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-42000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>30000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>359000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>556000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>870000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>699000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>631000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>274000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>257000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>190000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>313000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1805,8 +1862,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1820,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>1000</v>
@@ -1832,37 +1892,40 @@
         <v>1000</v>
       </c>
       <c r="K29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L29" s="3">
         <v>127000</v>
-      </c>
-      <c r="L29" s="3">
-        <v>-4000</v>
       </c>
       <c r="M29" s="3">
         <v>-4000</v>
       </c>
       <c r="N29" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="O29" s="3">
         <v>-11000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>409000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>3000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>8000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>35000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-21000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1973,120 +2039,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-22000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-20000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
+        <v>190000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="N32" s="3">
         <v>-20000</v>
       </c>
-      <c r="G32" s="3">
-        <v>190000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-33000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-28000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-8000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>708000</v>
+      </c>
+      <c r="E33" s="3">
         <v>326000</v>
       </c>
-      <c r="E33" s="3">
-        <v>50000</v>
-      </c>
       <c r="F33" s="3">
+        <v>-438000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-494000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-210000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-41000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>31000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>486000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>552000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>866000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>688000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1040000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>277000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>265000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>225000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>292000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2141,125 +2216,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>708000</v>
+      </c>
+      <c r="E35" s="3">
         <v>326000</v>
       </c>
-      <c r="E35" s="3">
-        <v>50000</v>
-      </c>
       <c r="F35" s="3">
+        <v>-438000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-494000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-210000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-41000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>31000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>486000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>552000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>866000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>688000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1040000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>277000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>265000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>225000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>292000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,8 +2364,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2302,64 +2387,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3657000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2403000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1465000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1602000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2020000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2247000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2623000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2833000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4217000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4556000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3859000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3702000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4526000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4957000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4667000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4001000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4245000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1108000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2414,232 +2503,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1412000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1357000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1363000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1093000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1101000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>994000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>944000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1121000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1319000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1282000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1302000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1444000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1514000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1546000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1434000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1399000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1975000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3893000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3892000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3810000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3854000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4073000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4434000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4377000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4461000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4759000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4047000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4176000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3885000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4149000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3857000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3642000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3763000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3642000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3685000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>341000</v>
+      </c>
+      <c r="E45" s="3">
         <v>419000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>517000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>808000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>721000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>672000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>786000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>630000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>425000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1036000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1006000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1075000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>945000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>790000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>674000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>604000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>573000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9303000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8071000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7155000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7357000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7915000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8347000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8730000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9045000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10720000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10921000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10343000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10106000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10626000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11150000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10417000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9767000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10435000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>11505000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2694,64 +2798,70 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29818000</v>
+      </c>
+      <c r="E48" s="3">
         <v>29911000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29936000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29899000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29584000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29330000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>28841000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>28497000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>28010000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23013000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22923000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22792000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>23002000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>22934000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>23115000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>23174000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>23293000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>26038000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2806,8 +2916,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2862,8 +2975,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2918,64 +3034,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3023000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3117000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3139000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2963000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3310000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3266000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3515000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3517000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3486000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3815000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3762000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3739000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3682000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3243000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3511000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3635000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3589000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3857000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,64 +3152,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42144000</v>
+      </c>
+      <c r="E54" s="3">
         <v>41099000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>40230000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>40219000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>40809000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>40943000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>41086000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>41059000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>42216000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>37749000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>37028000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>36637000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37302000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>37327000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37043000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>36576000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>37317000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>41400000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,8 +3236,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3130,261 +3259,274 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2670000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2533000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2471000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2374000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2532000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2686000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2645000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2553000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2608000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2383000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2420000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2208000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2441000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2098000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1880000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1780000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2393000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2347000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E58" s="3">
         <v>47000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>90000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>245000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>4000</v>
       </c>
       <c r="I58" s="3">
         <v>4000</v>
       </c>
       <c r="J58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K58" s="3">
         <v>3000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>4000</v>
       </c>
       <c r="M58" s="3">
         <v>4000</v>
       </c>
       <c r="N58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="O58" s="3">
         <v>483000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1414000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2215000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2216000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2228000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1232000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>802000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>713000</v>
+      </c>
+      <c r="E59" s="3">
         <v>516000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>345000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>524000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>672000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>691000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>637000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>691000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>704000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1464000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1375000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1653000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1382000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1204000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>848000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>834000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>640000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1339000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3417000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3096000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2906000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3143000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3209000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3381000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3286000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3247000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3329000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3851000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3799000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4344000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4914000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5517000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4944000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4842000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4265000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4488000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9677000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9983000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9824000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9829000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9821000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9915000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9912000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9902000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11124000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>11123000</v>
       </c>
       <c r="M61" s="3">
         <v>11123000</v>
@@ -3393,81 +3535,87 @@
         <v>11123000</v>
       </c>
       <c r="O61" s="3">
+        <v>11123000</v>
+      </c>
+      <c r="P61" s="3">
         <v>11815000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>12567000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>13138000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>13135000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14795000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>18180000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10382000</v>
+      </c>
+      <c r="E62" s="3">
         <v>10458000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10345000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10284000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10331000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10105000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10071000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10069000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9871000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9321000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9264000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9244000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9277000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9013000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8968000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9012000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9000000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8892000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3522,8 +3670,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3578,8 +3729,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3634,64 +3788,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31970000</v>
+      </c>
+      <c r="E66" s="3">
         <v>31863000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>31276000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>31364000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>31511000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>31499000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>31377000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>31276000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32418000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>27772000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>27554000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>27981000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>29325000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>30354000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>30370000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>30258000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>31266000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>36668000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3712,8 +3872,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3768,8 +3929,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,8 +3988,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3880,8 +4047,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3936,64 +4106,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11681000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12389000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12718000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12771000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12280000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12289000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12082000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12010000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12041000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12526000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13161000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14030000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14722000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15763000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16043000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-16311000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-16540000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-16832000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4048,8 +4224,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4104,8 +4283,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,64 +4342,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10174000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9236000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8954000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8855000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9298000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9444000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9709000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9783000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9798000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9977000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9474000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8656000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7977000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6973000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6673000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6318000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6051000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4732000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,125 +4460,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>708000</v>
+      </c>
+      <c r="E81" s="3">
         <v>326000</v>
       </c>
-      <c r="E81" s="3">
-        <v>50000</v>
-      </c>
       <c r="F81" s="3">
+        <v>-438000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-494000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-210000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-41000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>31000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>486000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>552000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>866000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>688000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1040000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>277000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>265000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>225000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>292000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4411,64 +4608,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>435000</v>
+      </c>
+      <c r="E83" s="3">
         <v>394000</v>
       </c>
-      <c r="E83" s="3">
-        <v>358000</v>
-      </c>
       <c r="F83" s="3">
+        <v>699000</v>
+      </c>
+      <c r="G83" s="3">
         <v>341000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>391000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>322000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>699000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>347000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>403000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>458000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>442000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>451000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>457000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>418000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>450000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>389000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>593000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>643000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4523,8 +4724,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4579,8 +4783,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4635,8 +4842,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,8 +4901,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4747,64 +4960,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1327000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1237000</v>
       </c>
-      <c r="E89" s="3">
-        <v>491000</v>
-      </c>
       <c r="F89" s="3">
+        <v>453000</v>
+      </c>
+      <c r="G89" s="3">
         <v>-38000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>170000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>224000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1088000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>534000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-62000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1247000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1309000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1369000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1664000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1189000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1037000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>792000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1135000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>980000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4825,40 +5044,41 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4000</v>
       </c>
-      <c r="F91" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-4000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-1000</v>
       </c>
       <c r="N91" s="3">
         <v>-1000</v>
@@ -4867,22 +5087,25 @@
         <v>-1000</v>
       </c>
       <c r="P91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-688000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-329000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-494000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4937,8 +5160,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,64 +5219,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-407000</v>
       </c>
-      <c r="E94" s="3">
-        <v>-480000</v>
-      </c>
       <c r="F94" s="3">
+        <v>-1026000</v>
+      </c>
+      <c r="G94" s="3">
         <v>-546000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-278000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-658000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1167000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-546000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3546000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-502000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-478000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-492000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-367000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-251000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-342000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-361000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>4444000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-359000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,8 +5303,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5089,26 +5322,26 @@
         <v>-73000</v>
       </c>
       <c r="H96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-72000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-146000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-73000</v>
       </c>
       <c r="K96" s="3">
         <v>-73000</v>
       </c>
       <c r="L96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-72000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-73000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5116,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>-1000</v>
@@ -5125,10 +5358,13 @@
         <v>-1000</v>
       </c>
       <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-1000</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5419,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,8 +5478,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5295,172 +5537,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-248000</v>
+      </c>
+      <c r="E100" s="3">
         <v>96000</v>
       </c>
-      <c r="E100" s="3">
-        <v>-149000</v>
-      </c>
       <c r="F100" s="3">
+        <v>24000</v>
+      </c>
+      <c r="G100" s="3">
         <v>173000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-126000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-60000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1370000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1331000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3240000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-63000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-689000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1588000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-583000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-25000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-679000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2418000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-55000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>11000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>12000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>32000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>45000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-52000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>8000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-6000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1248000</v>
+      </c>
+      <c r="E102" s="3">
         <v>926000</v>
       </c>
-      <c r="E102" s="3">
-        <v>-138000</v>
-      </c>
       <c r="F102" s="3">
+        <v>-549000</v>
+      </c>
+      <c r="G102" s="3">
         <v>-411000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-234000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-494000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1449000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-423000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>693000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>154000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-679000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-436000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>297000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>669000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-240000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3155000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>756000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>FCX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4850000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4495000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3851000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5852000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2798000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3911000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3153000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7338000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3792000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3684000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4908000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5168000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4868000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5041000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4310000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3711000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3341000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4377000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3877000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3206000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3066000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2835000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5381000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3132000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3398000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3036000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6678000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3378000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3301000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3518000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3351000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3257000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6073000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6023000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7629000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4778000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3342000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3192000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1644000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1429000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1016000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>471000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-334000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>513000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>117000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>660000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>414000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>383000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1390000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1817000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1611000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-1032000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-1713000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-3918000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-1437000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1035000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>685000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,67 +949,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E12" s="3">
         <v>8000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>27000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>16000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>21000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>25000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>58000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>27000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>33000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>27000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>24000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>33000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>27000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>19000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>14000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>18000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1055,67 +1071,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>93000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>263000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>32000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>21000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>6000</v>
       </c>
       <c r="K14" s="3">
         <v>6000</v>
       </c>
       <c r="L14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-9000</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-11000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>25000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1173,8 +1195,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3318000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2787000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3030000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6045000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3303000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3136000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3212000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6990000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3477000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3369000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3593000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3495000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3409000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3549000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3371000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3029000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2744000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3699000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3503000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1532000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1708000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>821000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-193000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-505000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>775000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-59000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>348000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>315000</v>
       </c>
       <c r="L18" s="3">
         <v>315000</v>
       </c>
       <c r="M18" s="3">
+        <v>315000</v>
+      </c>
+      <c r="N18" s="3">
         <v>1315000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1673000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1459000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1492000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>939000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>682000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>597000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>678000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>374000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,303 +1366,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>22000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>40000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>20000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-190000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>33000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>19000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>13000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>20000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>28000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-9000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>8000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1962000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2140000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1237000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>546000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-144000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>976000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>296000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1066000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>676000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>731000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1787000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2135000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1938000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1950000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1348000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1125000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>994000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1266000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1007000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E22" s="3">
         <v>236000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>120000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>242000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>127000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>219000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>123000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>278000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>146000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>509000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>143000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>142000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>151000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>168000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>304000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>162000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>167000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>181000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>187000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1398000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1469000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>723000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-395000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-612000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>366000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-149000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>89000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>183000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-181000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1186000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1551000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1336000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1325000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>626000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>513000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>438000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>492000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>177000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>443000</v>
+      </c>
+      <c r="E24" s="3">
         <v>611000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>297000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>36000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-60000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>329000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>91000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>90000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>105000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-429000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>522000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>515000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>506000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>529000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>387000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>186000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>174000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>292000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-114000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>955000</v>
+      </c>
+      <c r="E26" s="3">
         <v>858000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>426000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-431000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-552000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>37000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-240000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>78000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>248000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>664000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1036000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>830000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>796000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>239000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>327000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>264000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>200000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>714000</v>
+      </c>
+      <c r="E27" s="3">
         <v>708000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>326000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-438000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-494000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>11000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-211000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-42000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>30000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>359000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>556000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>870000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>699000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>631000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>274000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>257000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>190000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>313000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,13 +1922,16 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1883,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <v>1000</v>
@@ -1895,37 +1955,40 @@
         <v>1000</v>
       </c>
       <c r="L29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M29" s="3">
         <v>127000</v>
-      </c>
-      <c r="M29" s="3">
-        <v>-4000</v>
       </c>
       <c r="N29" s="3">
         <v>-4000</v>
       </c>
       <c r="O29" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="P29" s="3">
         <v>-11000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>409000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>3000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>8000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>35000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-21000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,126 +2108,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E32" s="3">
         <v>3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-22000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-40000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-20000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>190000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-33000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-19000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-13000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-20000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-28000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>9000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-8000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>714000</v>
+      </c>
+      <c r="E33" s="3">
         <v>708000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>326000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-438000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-494000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-210000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-41000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>31000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>486000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>552000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>866000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>688000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1040000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>277000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>265000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>225000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>292000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>714000</v>
+      </c>
+      <c r="E35" s="3">
         <v>708000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>326000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-438000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-494000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-210000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-41000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>31000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>486000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>552000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>866000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>688000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1040000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>277000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>265000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>225000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>292000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,67 +2473,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4580000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3657000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2403000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1465000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1602000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2020000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2247000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2623000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2833000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4217000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4556000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3859000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3702000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4526000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4957000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4667000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4001000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4245000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1108000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2506,244 +2595,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1770000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1412000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1357000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1363000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1093000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1101000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>994000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>944000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1121000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1319000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1282000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1302000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1444000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1514000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1546000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1434000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1399000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1975000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4145000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3893000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3892000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3810000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3854000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4073000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4434000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4377000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4461000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4759000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4047000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4176000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3885000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4149000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3857000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3642000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3763000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3642000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3685000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>361000</v>
+      </c>
+      <c r="E45" s="3">
         <v>341000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>419000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>517000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>808000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>721000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>672000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>786000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>630000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>425000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1036000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1006000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1075000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>945000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>790000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>674000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>604000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>573000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10856000</v>
+      </c>
+      <c r="E46" s="3">
         <v>9303000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8071000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7155000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7357000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7915000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8347000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8730000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9045000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10720000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10921000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10343000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10106000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10626000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11150000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10417000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9767000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10435000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>11505000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2801,67 +2905,73 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29775000</v>
+      </c>
+      <c r="E48" s="3">
         <v>29818000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29911000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29936000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29899000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29584000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29330000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>28841000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>28497000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>28010000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23013000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22923000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>22792000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>23002000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>22934000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>23115000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>23174000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>23293000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>26038000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2919,8 +3029,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,67 +3153,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3012000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3023000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3117000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3139000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2963000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3310000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3266000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3515000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3517000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3486000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3815000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3762000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3739000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3682000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3243000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3511000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3635000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3589000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3857000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>43643000</v>
+      </c>
+      <c r="E54" s="3">
         <v>42144000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>41099000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>40230000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>40219000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>40809000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>40943000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>41086000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41059000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42216000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>37749000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>37028000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>36637000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>37302000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37327000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37043000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>36576000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>37317000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>41400000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,276 +3389,289 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2866000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2670000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2533000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2471000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2374000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2532000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2686000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2645000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2553000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2608000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2383000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2420000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2208000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2441000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2098000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1880000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1780000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2393000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2347000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>656000</v>
+      </c>
+      <c r="E58" s="3">
         <v>34000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>47000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>90000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>245000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>4000</v>
       </c>
       <c r="J58" s="3">
         <v>4000</v>
       </c>
       <c r="K58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L58" s="3">
         <v>3000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>4000</v>
       </c>
       <c r="N58" s="3">
         <v>4000</v>
       </c>
       <c r="O58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="P58" s="3">
         <v>483000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1414000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2215000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2216000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2228000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1232000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>802000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1089000</v>
+      </c>
+      <c r="E59" s="3">
         <v>713000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>516000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>345000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>524000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>672000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>691000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>637000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>691000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>704000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1464000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1375000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1653000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1382000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1204000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>848000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>834000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>640000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1339000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4611000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3417000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3096000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2906000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3143000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3209000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3381000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3286000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3247000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3329000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3851000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3799000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4344000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4914000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5517000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4944000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4842000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4265000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4488000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9153000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9677000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9983000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9824000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9829000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9821000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9915000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9912000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9902000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11124000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>11123000</v>
       </c>
       <c r="N61" s="3">
         <v>11123000</v>
@@ -3538,84 +3680,90 @@
         <v>11123000</v>
       </c>
       <c r="P61" s="3">
+        <v>11123000</v>
+      </c>
+      <c r="Q61" s="3">
         <v>11815000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>12567000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>13138000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>13135000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14795000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>18180000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10306000</v>
+      </c>
+      <c r="E62" s="3">
         <v>10382000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10458000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10345000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10284000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10331000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10105000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10071000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10069000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9871000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9321000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9264000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9244000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9277000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9013000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8968000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9012000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9000000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8892000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>32723000</v>
+      </c>
+      <c r="E66" s="3">
         <v>31970000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>31863000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>31276000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>31364000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>31511000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>31499000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>31377000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31276000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32418000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>27772000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>27554000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>27981000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>29325000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>30354000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>30370000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>30258000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>31266000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>36668000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,8 +4155,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10963000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11681000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12389000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12718000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12771000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12280000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12289000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12082000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12010000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12041000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12526000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13161000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14030000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14722000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-15763000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-16043000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-16311000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-16540000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-16832000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10920000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10174000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9236000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8954000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8855000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9298000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9444000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9709000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9783000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9798000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9977000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9474000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8656000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7977000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6973000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6673000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6318000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6051000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4732000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>714000</v>
+      </c>
+      <c r="E81" s="3">
         <v>708000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>326000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-438000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-494000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-210000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-41000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>31000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>486000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>552000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>866000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>688000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1040000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>277000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>265000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>225000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>292000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,67 +4806,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>419000</v>
+      </c>
+      <c r="E83" s="3">
         <v>435000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>394000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>699000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>341000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>391000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>322000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>699000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>347000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>403000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>458000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>442000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>451000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>457000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>418000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>450000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>389000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>593000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>643000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1075000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1327000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1237000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>453000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-38000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>170000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>224000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1088000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>534000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-62000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1247000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1309000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1369000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1664000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1189000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1037000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>792000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1135000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>980000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,43 +5264,44 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4000</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-1000</v>
       </c>
       <c r="O91" s="3">
         <v>-1000</v>
@@ -5090,22 +5310,25 @@
         <v>-1000</v>
       </c>
       <c r="Q91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R91" s="3">
         <v>-2000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-688000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-329000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-494000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-368000</v>
+      </c>
+      <c r="E94" s="3">
         <v>169000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-407000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1026000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-546000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-278000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-658000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1167000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-546000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3546000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-502000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-478000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-492000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-367000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-251000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-342000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-361000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>4444000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-359000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,8 +5536,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5316,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-73000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>-73000</v>
@@ -5325,26 +5558,26 @@
         <v>-73000</v>
       </c>
       <c r="I96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-72000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-146000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-73000</v>
       </c>
       <c r="L96" s="3">
         <v>-73000</v>
       </c>
       <c r="M96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-72000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-73000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -5352,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="S96" s="3">
         <v>-1000</v>
@@ -5361,10 +5594,13 @@
         <v>-1000</v>
       </c>
       <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+        <v>-1000</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,67 +5782,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-248000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>96000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>24000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>173000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-126000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-60000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1370000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1331000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3240000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-63000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-689000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1588000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-583000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-25000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-679000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2418000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5625,96 +5873,102 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-55000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>11000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>12000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>32000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>45000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-52000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>8000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-6000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>932000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1248000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>926000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-549000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-411000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-234000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-494000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1449000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-423000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>693000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>154000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-679000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-436000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>297000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>669000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-240000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3155000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>756000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>FCX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="23" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5748000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4850000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4495000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3851000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5852000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2798000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3911000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3153000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7338000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3792000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3684000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4908000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5168000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4868000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5041000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4310000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3711000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3341000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4377000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3877000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3550000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3206000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3066000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2835000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5381000</v>
       </c>
-      <c r="H9" s="3">
-        <v>3132000</v>
-      </c>
       <c r="I9" s="3">
+        <v>3099000</v>
+      </c>
+      <c r="J9" s="3">
         <v>3398000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3036000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6678000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3378000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3301000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3518000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3351000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3257000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6073000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6023000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7629000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4778000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3342000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3192000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2198000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1644000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1429000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1016000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>471000</v>
       </c>
-      <c r="H10" s="3">
-        <v>-334000</v>
-      </c>
       <c r="I10" s="3">
+        <v>-301000</v>
+      </c>
+      <c r="J10" s="3">
         <v>513000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>117000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>660000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>414000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>383000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1390000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1817000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1611000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-1032000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-1713000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-3918000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-1437000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1035000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>685000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,70 +963,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E12" s="3">
         <v>7000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>27000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>16000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>25000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>58000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>27000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>33000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>27000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>24000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>33000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>27000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>19000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>14000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>18000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1074,8 +1091,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1083,61 +1103,64 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>93000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>263000</v>
       </c>
-      <c r="H14" s="3">
-        <v>32000</v>
-      </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>65000</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>21000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>6000</v>
       </c>
       <c r="L14" s="3">
         <v>6000</v>
       </c>
       <c r="M14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-9000</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-13000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-11000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>25000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1198,8 +1221,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1245,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3681000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3318000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2787000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3030000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6045000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3303000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3136000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3212000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6990000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3477000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3369000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3593000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3495000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3409000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3549000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3371000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3029000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2744000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3699000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3503000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2067000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1532000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1708000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>821000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-193000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-505000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>775000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-59000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>348000</v>
-      </c>
-      <c r="L18" s="3">
-        <v>315000</v>
       </c>
       <c r="M18" s="3">
         <v>315000</v>
       </c>
       <c r="N18" s="3">
+        <v>315000</v>
+      </c>
+      <c r="O18" s="3">
         <v>1315000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1673000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1459000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1492000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>939000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>682000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>597000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>678000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>374000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,318 +1400,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E20" s="3">
         <v>11000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>22000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>40000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>20000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-190000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>33000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>19000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>13000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>20000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>28000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-9000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>8000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2559000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1962000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2140000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1237000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>546000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-144000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>976000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>296000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1066000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>676000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>731000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1787000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2135000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1938000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1950000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1348000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1125000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>994000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1266000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1007000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E22" s="3">
         <v>145000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>236000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>120000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>242000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>127000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>219000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>123000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>278000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>146000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>509000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>143000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>142000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>151000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>168000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>304000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>162000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>167000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>181000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>187000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1928000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1398000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1469000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>723000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-395000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-612000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>366000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-149000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>89000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>183000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-181000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1186000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1551000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1336000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1325000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>626000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>513000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>438000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>492000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>177000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>603000</v>
+      </c>
+      <c r="E24" s="3">
         <v>443000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>611000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>297000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>36000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-60000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>329000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>91000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>90000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>105000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-429000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>522000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>515000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>506000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>529000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>387000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>186000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>174000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>292000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-114000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1788,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1325000</v>
+      </c>
+      <c r="E26" s="3">
         <v>955000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>858000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>426000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-431000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-552000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>37000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-240000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>78000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>248000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>664000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1036000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>830000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>796000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>239000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>327000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>264000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>200000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>714000</v>
+        <v>1079000</v>
       </c>
       <c r="E27" s="3">
+        <v>718000</v>
+      </c>
+      <c r="F27" s="3">
         <v>708000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>326000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-438000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-494000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>11000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-211000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-42000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>30000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>359000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>556000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>870000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>699000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>631000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>274000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>257000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>190000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>313000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,16 +1983,19 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1946,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>1000</v>
@@ -1958,37 +2019,40 @@
         <v>1000</v>
       </c>
       <c r="M29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N29" s="3">
         <v>127000</v>
-      </c>
-      <c r="N29" s="3">
-        <v>-4000</v>
       </c>
       <c r="O29" s="3">
         <v>-4000</v>
       </c>
       <c r="P29" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>409000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>3000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>8000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>35000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-21000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2113,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,132 +2178,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-22000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-40000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-20000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>190000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-33000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-19000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-13000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-20000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>9000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-8000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>714000</v>
+        <v>1079000</v>
       </c>
       <c r="E33" s="3">
+        <v>718000</v>
+      </c>
+      <c r="F33" s="3">
         <v>708000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>326000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-438000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-494000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-210000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-41000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>31000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>486000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>552000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>866000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>688000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1040000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>277000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>265000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>225000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>292000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2373,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>714000</v>
+        <v>1079000</v>
       </c>
       <c r="E35" s="3">
+        <v>718000</v>
+      </c>
+      <c r="F35" s="3">
         <v>708000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>326000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-438000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-494000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-210000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-41000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>31000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>486000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>552000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>866000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>688000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1040000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>277000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>265000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>225000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>292000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2535,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,70 +2560,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6313000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4580000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3657000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2403000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1465000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1602000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2020000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2247000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2623000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2833000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4217000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4556000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3859000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3702000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4526000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4957000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4667000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4001000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4245000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1108000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2598,256 +2688,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1678000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1770000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1412000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1357000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1363000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1093000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1101000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>994000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>944000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1121000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1319000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1282000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1302000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1444000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1514000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1546000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1434000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1399000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1975000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4218000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4145000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3893000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3892000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3810000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3854000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4073000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4434000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4377000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4461000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4759000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4047000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4176000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3885000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4149000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3857000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3642000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3763000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3642000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3685000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>390000</v>
+      </c>
+      <c r="E45" s="3">
         <v>361000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>341000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>419000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>517000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>808000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>721000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>672000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>786000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>630000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>425000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1036000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1006000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1075000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>945000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>790000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>674000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>604000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>573000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12599000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10856000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9303000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8071000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7155000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7357000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7915000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8347000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8730000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9045000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10720000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10921000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10343000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10106000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10626000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11150000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10417000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9767000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10435000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>11505000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2908,70 +3013,76 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29836000</v>
+      </c>
+      <c r="E48" s="3">
         <v>29775000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29818000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29911000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29936000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29899000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29584000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29330000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>28841000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>28497000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>28010000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>23013000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>22923000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>22792000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>23002000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>22934000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>23115000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>23174000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>23293000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>26038000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3032,8 +3143,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3208,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,70 +3273,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3001000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3012000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3023000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3117000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3139000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2963000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3310000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3266000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3515000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3517000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3486000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3815000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3762000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3739000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3682000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3243000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3511000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3635000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3589000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3857000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3403,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>45436000</v>
+      </c>
+      <c r="E54" s="3">
         <v>43643000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>42144000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>41099000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>40230000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>40219000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>40809000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>40943000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41086000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>41059000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42216000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>37749000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37028000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>36637000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37302000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37327000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>37043000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>36576000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>37317000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>41400000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3495,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,291 +3520,304 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3106000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2866000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2670000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2533000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2471000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2374000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2532000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2686000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2645000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2553000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2608000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2383000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2420000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2208000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2441000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2098000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1880000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1780000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2393000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2347000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1057000</v>
+      </c>
+      <c r="E58" s="3">
         <v>656000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>34000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>47000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>90000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>245000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>4000</v>
       </c>
       <c r="K58" s="3">
         <v>4000</v>
       </c>
       <c r="L58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M58" s="3">
         <v>3000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>17000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>4000</v>
       </c>
       <c r="O58" s="3">
         <v>4000</v>
       </c>
       <c r="P58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>483000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1414000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2215000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2216000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2228000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1232000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>802000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1364000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1089000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>713000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>516000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>345000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>524000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>672000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>691000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>637000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>691000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>704000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1464000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1375000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1653000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1382000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1204000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>848000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>834000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>640000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1339000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5527000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4611000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3417000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3096000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2906000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3143000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3209000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3381000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3286000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3247000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3329000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3851000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3799000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4344000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4914000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5517000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4944000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4842000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4265000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4488000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8638000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9153000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9677000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9983000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9824000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9829000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9821000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9915000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9912000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9902000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11124000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>11123000</v>
       </c>
       <c r="O61" s="3">
         <v>11123000</v>
@@ -3683,87 +3826,93 @@
         <v>11123000</v>
       </c>
       <c r="Q61" s="3">
+        <v>11123000</v>
+      </c>
+      <c r="R61" s="3">
         <v>11815000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>12567000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>13138000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>13135000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>14795000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>18180000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10336000</v>
+      </c>
+      <c r="E62" s="3">
         <v>10306000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10382000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10458000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10345000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10284000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10331000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10105000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10071000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10069000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9871000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9321000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9264000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9244000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9277000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9013000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8968000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9012000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9000000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8892000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +3973,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4038,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4103,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>33425000</v>
+      </c>
+      <c r="E66" s="3">
         <v>32723000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>31970000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>31863000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>31276000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>31364000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>31511000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>31499000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31377000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31276000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32418000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>27772000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>27554000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>27981000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>29325000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>30354000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>30370000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>30258000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>31266000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>36668000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4195,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4258,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4323,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4220,8 +4388,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4453,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9880000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10963000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11681000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12389000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12718000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12771000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12280000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12289000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12082000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12010000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12041000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12526000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13161000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14030000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-14722000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-15763000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-16043000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-16311000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-16540000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-16832000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4583,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4648,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4713,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12011000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10920000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10174000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9236000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8954000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8855000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9298000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9444000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9709000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9783000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9798000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9977000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9474000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8656000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7977000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6973000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6673000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6318000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6051000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4732000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +4843,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>714000</v>
+        <v>1079000</v>
       </c>
       <c r="E81" s="3">
+        <v>718000</v>
+      </c>
+      <c r="F81" s="3">
         <v>708000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>326000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-438000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-494000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-210000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-41000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>31000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>486000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>552000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>866000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>688000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1040000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>277000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>265000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>225000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>292000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,70 +5005,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>483000</v>
+      </c>
+      <c r="E83" s="3">
         <v>419000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>435000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>394000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>699000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>341000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>391000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>322000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>699000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>347000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>403000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>458000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>442000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>451000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>457000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>418000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>450000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>389000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>593000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>643000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5133,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5198,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5263,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5328,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5393,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2395000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1075000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1327000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1237000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>453000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-38000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>170000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>224000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1088000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>534000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-62000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1247000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1309000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1369000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1664000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1189000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1037000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>792000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1135000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>980000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,46 +5485,47 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-1000</v>
       </c>
       <c r="P91" s="3">
         <v>-1000</v>
@@ -5313,22 +5534,25 @@
         <v>-1000</v>
       </c>
       <c r="R91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S91" s="3">
         <v>-2000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-688000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-329000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-494000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5613,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5678,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-465000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-368000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>169000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-407000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1026000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-546000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-278000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-658000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1167000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-546000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3546000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-502000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-478000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-492000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-367000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-251000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-342000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-361000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>4444000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-359000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,13 +5770,14 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-111000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5552,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-73000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>-73000</v>
@@ -5561,26 +5795,26 @@
         <v>-73000</v>
       </c>
       <c r="J96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-72000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-146000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-73000</v>
       </c>
       <c r="M96" s="3">
         <v>-73000</v>
       </c>
       <c r="N96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-72000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-73000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5588,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="T96" s="3">
         <v>-1000</v>
@@ -5597,10 +5831,13 @@
         <v>-1000</v>
       </c>
       <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-1000</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +5898,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5963,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,70 +6028,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-196000</v>
+      </c>
+      <c r="E100" s="3">
         <v>225000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-248000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>96000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>24000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>173000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-126000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-60000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1370000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1331000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3240000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-63000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-689000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1588000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-583000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-25000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-679000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2418000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5876,99 +6125,105 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-55000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>11000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>12000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>32000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>45000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-52000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>8000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-6000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1734000</v>
+      </c>
+      <c r="E102" s="3">
         <v>932000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1248000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>926000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-549000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-411000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-234000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-494000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1449000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-423000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>693000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>154000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-679000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-436000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>297000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>669000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-240000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3155000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>756000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>FCX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="23" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="24" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6083000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5748000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4850000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4495000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3851000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5852000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2798000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3911000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3153000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7338000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3792000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3684000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4908000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5168000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4868000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5041000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4310000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3711000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3341000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4377000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3877000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3551000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3550000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3206000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3066000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2835000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5381000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3099000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3398000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3036000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6678000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3378000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3301000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3518000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3351000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3257000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6073000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6023000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7629000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4778000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3342000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3192000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2532000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2198000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1644000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1429000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1016000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>471000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-301000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>513000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>117000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>660000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>414000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>383000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1390000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1817000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1611000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-1032000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-1713000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-3918000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-1437000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1035000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>685000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,73 +977,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E12" s="3">
         <v>14000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>27000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>25000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>58000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>27000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>33000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>27000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>24000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>21000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>33000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>27000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>19000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>14000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>18000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1094,8 +1111,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,61 +1126,64 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>93000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>263000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>65000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>21000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>6000</v>
       </c>
       <c r="M14" s="3">
         <v>6000</v>
       </c>
       <c r="N14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-13000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-11000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>25000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1224,8 +1247,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1246,138 +1272,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3621000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3681000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3318000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2787000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3030000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6045000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3303000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3136000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3212000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6990000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3477000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3369000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3593000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3495000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3409000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3549000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3371000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3029000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2744000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3699000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3503000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2462000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2067000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1532000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1708000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>821000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-193000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-505000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>775000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-59000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>348000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>315000</v>
       </c>
       <c r="N18" s="3">
         <v>315000</v>
       </c>
       <c r="O18" s="3">
+        <v>315000</v>
+      </c>
+      <c r="P18" s="3">
         <v>1315000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1673000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1459000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1492000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>939000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>682000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>597000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>678000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>374000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1401,333 +1434,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E20" s="3">
         <v>9000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>11000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>22000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>40000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>20000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-190000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>33000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>13000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>20000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>28000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-9000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>8000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-5000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3026000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2559000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1962000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2140000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1237000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>546000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-144000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>976000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>296000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1066000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>676000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>731000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1787000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2135000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1938000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1950000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1348000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1125000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>994000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1266000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1007000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E22" s="3">
         <v>148000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>145000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>236000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>120000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>242000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>127000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>219000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>123000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>278000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>146000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>509000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>143000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>142000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>151000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>168000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>304000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>162000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>167000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>181000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>187000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2360000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1928000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1398000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1469000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>723000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-395000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-612000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>366000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-149000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>89000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>183000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-181000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1186000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1551000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1336000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1325000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>626000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>513000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>438000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>492000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>177000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>628000</v>
+      </c>
+      <c r="E24" s="3">
         <v>603000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>443000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>611000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>297000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>36000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-60000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>329000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>91000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>90000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>105000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-429000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>522000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>515000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>506000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>529000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>387000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>186000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>174000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>292000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-114000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1791,138 +1840,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1732000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1325000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>955000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>858000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>426000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-431000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-552000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>37000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-240000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>78000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>248000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>664000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1036000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>830000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>796000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>239000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>327000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>264000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>200000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1395000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1079000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>718000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>708000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>326000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-438000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-494000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>11000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-211000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-42000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>359000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>556000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>870000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>699000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>631000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>274000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>257000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>190000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>313000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1986,8 +2044,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1997,8 +2058,8 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2010,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K29" s="3">
         <v>1000</v>
@@ -2022,37 +2083,40 @@
         <v>1000</v>
       </c>
       <c r="N29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O29" s="3">
         <v>127000</v>
-      </c>
-      <c r="O29" s="3">
-        <v>-4000</v>
       </c>
       <c r="P29" s="3">
         <v>-4000</v>
       </c>
       <c r="Q29" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="R29" s="3">
         <v>-11000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>409000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>3000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>8000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>35000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-21000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2116,8 +2180,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2181,138 +2248,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-11000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-22000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-40000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-20000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>190000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-33000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-13000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-28000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>9000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-8000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>5000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1395000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1079000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>718000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>708000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>326000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-438000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-494000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-210000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-41000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>31000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>486000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>552000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>866000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>688000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1040000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>277000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>265000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>225000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>292000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2376,143 +2452,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1395000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1079000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>718000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>708000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>326000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-438000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-494000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-210000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-41000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>31000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>486000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>552000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>866000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>688000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1040000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>277000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>265000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>225000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>292000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2536,8 +2621,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2561,73 +2647,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7672000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6313000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4580000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3657000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2403000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1465000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1602000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2020000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2247000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2623000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2833000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4217000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4556000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3859000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3702000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4526000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4957000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4667000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4001000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4245000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1108000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2691,268 +2781,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1522000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1678000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1770000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1412000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1357000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1363000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1093000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1101000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>994000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>944000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1121000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1319000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1282000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1302000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1444000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1514000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1546000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1434000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1399000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1975000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4120000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4218000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4145000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3893000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3892000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3810000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3854000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4073000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4434000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4377000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4461000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4759000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4047000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4176000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3885000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4149000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3857000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3642000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3763000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3642000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3685000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>477000</v>
+      </c>
+      <c r="E45" s="3">
         <v>390000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>361000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>341000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>419000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>517000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>808000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>721000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>672000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>786000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>630000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>425000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1036000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1006000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1075000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>945000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>790000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>674000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>604000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>573000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13791000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12599000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10856000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9303000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8071000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7155000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7357000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7915000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8347000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8730000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9045000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10720000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10921000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10343000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10106000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10626000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>11150000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10417000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9767000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10435000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>11505000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3016,73 +3121,79 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>30102000</v>
+      </c>
+      <c r="E48" s="3">
         <v>29836000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29775000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29818000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29911000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29936000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29899000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29584000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29330000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>28841000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>28497000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>28010000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>23013000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>22923000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>22792000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>23002000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>22934000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>23115000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>23174000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>23293000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>26038000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3146,8 +3257,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3211,8 +3325,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3276,73 +3393,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3024000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3001000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3012000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3023000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3117000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3139000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2963000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3310000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3266000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3515000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3517000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3486000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3815000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3762000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3739000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3682000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3243000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3511000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3635000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3589000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3857000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3406,73 +3529,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>46917000</v>
+      </c>
+      <c r="E54" s="3">
         <v>45436000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>43643000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>42144000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>41099000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>40230000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>40219000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>40809000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>40943000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>41086000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>41059000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>42216000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37749000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>37028000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>36637000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37302000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>37327000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>37043000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>36576000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>37317000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>41400000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3496,8 +3625,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3521,306 +3651,319 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2949000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3106000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2866000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2670000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2533000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2471000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2374000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2532000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2686000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2645000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2553000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2608000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2383000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2420000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2208000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2441000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2098000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1880000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1780000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2393000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2347000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>897000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1057000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>656000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>34000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>47000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>90000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>245000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>4000</v>
       </c>
       <c r="L58" s="3">
         <v>4000</v>
       </c>
       <c r="M58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N58" s="3">
         <v>3000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>17000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>4000</v>
       </c>
       <c r="P58" s="3">
         <v>4000</v>
       </c>
       <c r="Q58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="R58" s="3">
         <v>483000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1414000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2215000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2216000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2228000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1232000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>802000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1677000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1364000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1089000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>713000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>516000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>345000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>524000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>672000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>691000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>637000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>691000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>704000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1464000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1375000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1653000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1382000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1204000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>848000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>834000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>640000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1339000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5523000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5527000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4611000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3417000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3096000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2906000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3143000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3209000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3381000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3286000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3247000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3329000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3851000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3799000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4344000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4914000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5517000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4944000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4842000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4265000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4488000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8768000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8638000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9153000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9677000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9983000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9824000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9829000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9821000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9915000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9912000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9902000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11124000</v>
-      </c>
-      <c r="O61" s="3">
-        <v>11123000</v>
       </c>
       <c r="P61" s="3">
         <v>11123000</v>
@@ -3829,90 +3972,96 @@
         <v>11123000</v>
       </c>
       <c r="R61" s="3">
+        <v>11123000</v>
+      </c>
+      <c r="S61" s="3">
         <v>11815000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>12567000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>13138000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>13135000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>14795000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>18180000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10095000</v>
+      </c>
+      <c r="E62" s="3">
         <v>10336000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10306000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10382000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10458000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10345000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10284000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10331000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10105000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10071000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10069000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9871000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9321000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9264000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9244000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9277000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9013000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8968000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9012000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9000000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>8892000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3976,8 +4125,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4041,8 +4193,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4106,73 +4261,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>33564000</v>
+      </c>
+      <c r="E66" s="3">
         <v>33425000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>32723000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>31970000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>31863000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>31276000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>31364000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>31511000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31499000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31377000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31276000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>32418000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>27772000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>27554000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>27981000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>29325000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>30354000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>30370000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>30258000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>31266000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>36668000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4196,8 +4357,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4261,8 +4423,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4326,8 +4491,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4391,8 +4559,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4456,73 +4627,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8481000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9880000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10963000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11681000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12389000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12718000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12771000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12280000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12289000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12082000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12010000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12041000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12526000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13161000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-14030000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-14722000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-15763000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-16043000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-16311000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-16540000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-16832000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4586,8 +4763,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4651,8 +4831,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4716,73 +4899,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13353000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12011000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10920000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10174000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9236000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8954000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8855000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9298000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9444000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9709000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9783000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9798000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9977000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9474000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8656000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7977000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6973000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6673000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6318000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6051000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4732000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4846,143 +5035,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1395000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1079000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>718000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>708000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>326000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-438000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-494000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-210000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-41000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>31000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>486000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>552000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>866000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>688000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1040000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>277000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>265000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>225000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>292000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5006,73 +5204,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>528000</v>
+      </c>
+      <c r="E83" s="3">
         <v>483000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>419000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>435000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>394000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>699000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>341000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>391000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>322000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>699000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>347000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>403000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>458000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>442000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>451000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>457000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>418000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>450000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>389000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>593000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>643000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5136,8 +5338,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5201,8 +5406,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5266,8 +5474,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5331,8 +5542,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5396,73 +5610,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1965000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2395000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1075000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1327000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1237000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>453000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-38000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>170000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>224000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1088000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>534000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-62000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1247000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1309000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1369000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1664000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1189000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1037000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>792000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1135000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>980000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5486,49 +5706,50 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4000</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q91" s="3">
         <v>-1000</v>
@@ -5537,22 +5758,25 @@
         <v>-1000</v>
       </c>
       <c r="S91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T91" s="3">
         <v>-2000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-688000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-329000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-494000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5616,8 +5840,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5681,73 +5908,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-398000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-465000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-368000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>169000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-407000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1026000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-546000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-278000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-658000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1167000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-546000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3546000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-502000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-478000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-492000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-367000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-251000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-342000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-361000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>4444000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-359000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5771,17 +6004,18 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-111000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -5789,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-73000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>-73000</v>
@@ -5798,26 +6032,26 @@
         <v>-73000</v>
       </c>
       <c r="K96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-72000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-146000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-73000</v>
       </c>
       <c r="N96" s="3">
         <v>-73000</v>
       </c>
       <c r="O96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-72000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-73000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -5825,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="U96" s="3">
         <v>-1000</v>
@@ -5834,10 +6068,13 @@
         <v>-1000</v>
       </c>
       <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-1000</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5901,8 +6138,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5966,8 +6206,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6031,73 +6274,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-217000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-196000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>225000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-248000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>96000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>24000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>173000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-126000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-60000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1370000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1331000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3240000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-63000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-689000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1588000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-583000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-25000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-679000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2418000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6128,102 +6377,108 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-55000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>11000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>12000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>32000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>45000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-52000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>8000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-6000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1350000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1734000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>932000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1248000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>926000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-549000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-411000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-234000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-494000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1449000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-423000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>693000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>154000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-679000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-436000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>297000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>669000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-240000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3155000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>756000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,307 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="24" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="25" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6164000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6083000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5748000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4850000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4495000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3851000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5852000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2798000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3911000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3153000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7338000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3792000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3684000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4908000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5168000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4868000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5041000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4310000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3711000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3341000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4377000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3877000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3723000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3551000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3550000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3206000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3066000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2835000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5381000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3099000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3398000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3036000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6678000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3378000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3301000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3518000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3351000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3257000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6073000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6023000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7629000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4778000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3342000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3192000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2441000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2532000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2198000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1644000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1429000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1016000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>471000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-301000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>513000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>117000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>660000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>414000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>383000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1390000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1817000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1611000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-1032000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-1713000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-3918000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-1437000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1035000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>685000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,76 +990,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E12" s="3">
         <v>15000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>27000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>25000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>58000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>27000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>33000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>27000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>24000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>21000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>33000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>27000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>19000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>14000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>18000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1114,8 +1130,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1129,61 +1148,64 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>93000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>263000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>65000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>21000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>6000</v>
       </c>
       <c r="N14" s="3">
         <v>6000</v>
       </c>
       <c r="O14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-9000</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-13000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-11000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>25000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1250,8 +1272,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1273,144 +1298,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3859000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3621000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3681000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3318000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2787000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3030000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6045000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3303000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3136000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3212000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6990000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3477000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3369000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3593000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3495000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3409000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3549000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3371000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3029000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2744000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3699000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3503000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2305000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2462000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2067000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1532000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1708000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>821000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-193000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-505000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>775000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-59000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>348000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>315000</v>
       </c>
       <c r="O18" s="3">
         <v>315000</v>
       </c>
       <c r="P18" s="3">
+        <v>315000</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1315000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1673000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1459000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1492000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>939000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>682000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>597000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>678000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>374000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1435,348 +1467,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-161000</v>
+      </c>
+      <c r="E20" s="3">
         <v>36000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>9000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>11000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>22000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>40000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>20000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-190000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>33000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>19000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>13000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>14000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>20000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>28000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-9000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-7000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>8000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-5000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2712000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3026000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2559000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1962000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2140000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1237000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>546000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-144000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>976000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>296000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1066000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>676000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>731000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1787000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2135000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1938000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1950000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1348000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1125000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>994000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1266000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1007000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E22" s="3">
         <v>138000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>148000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>145000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>236000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>120000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>242000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>127000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>219000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>123000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>278000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>146000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>509000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>143000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>142000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>151000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>168000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>304000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>162000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>167000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>181000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>187000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1973000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2360000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1928000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1398000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1469000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>723000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-395000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-612000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>366000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-149000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>89000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>183000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-181000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1186000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1551000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1336000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1325000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>626000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>513000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>438000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>492000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>177000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>625000</v>
+      </c>
+      <c r="E24" s="3">
         <v>628000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>603000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>443000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>611000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>297000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>36000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-60000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>329000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>91000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>90000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>105000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-429000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>522000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>515000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>506000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>529000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>387000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>186000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>174000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>292000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-114000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1843,144 +1891,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1348000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1732000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1325000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>955000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>858000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>426000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-431000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-552000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>37000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-240000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>78000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>248000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>664000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1036000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>830000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>796000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>239000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>327000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>264000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>200000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1105000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1395000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1079000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>718000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>708000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>326000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-438000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-494000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-211000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-42000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>30000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>359000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>556000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>870000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>699000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>631000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>274000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>257000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>190000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>313000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2047,13 +2104,16 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>10</v>
@@ -2061,8 +2121,8 @@
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -2074,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L29" s="3">
         <v>1000</v>
@@ -2086,37 +2146,40 @@
         <v>1000</v>
       </c>
       <c r="O29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P29" s="3">
         <v>127000</v>
-      </c>
-      <c r="P29" s="3">
-        <v>-4000</v>
       </c>
       <c r="Q29" s="3">
         <v>-4000</v>
       </c>
       <c r="R29" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="S29" s="3">
         <v>-11000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>409000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>3000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>8000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>35000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-21000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2183,8 +2246,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2251,144 +2317,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-36000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-9000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-11000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-22000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-40000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-20000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>190000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-33000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-19000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-13000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-20000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-28000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>9000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>7000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-8000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>5000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1105000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1395000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1079000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>718000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>708000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>326000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-438000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-494000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-210000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-41000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>31000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>486000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>552000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>866000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>688000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1040000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>277000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>265000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>225000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>292000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2455,149 +2530,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1105000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1395000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1079000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>718000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>708000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>326000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-438000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-494000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-210000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-41000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>31000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>486000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>552000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>866000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>688000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1040000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>277000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>265000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>225000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>292000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2622,8 +2706,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2648,76 +2733,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8068000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7672000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6313000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4580000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3657000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2403000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1465000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1602000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2020000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2247000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2623000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2833000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4217000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4556000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3859000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3702000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4526000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4957000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4667000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4001000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4245000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1108000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2784,280 +2873,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1742000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1522000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1678000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1770000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1412000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1357000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1363000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1093000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1101000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>994000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>944000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1121000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1319000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1282000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1302000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1444000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1514000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1546000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1434000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1399000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1975000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4497000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4120000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4218000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4145000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3893000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3892000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3810000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3854000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4073000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4434000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4377000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4461000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4759000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4047000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4176000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3885000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4149000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3857000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3642000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3763000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3642000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3685000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>523000</v>
+      </c>
+      <c r="E45" s="3">
         <v>477000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>390000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>361000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>341000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>419000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>517000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>808000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>721000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>672000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>786000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>630000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>425000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1036000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1006000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1075000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>945000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>790000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>674000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>604000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>573000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14830000</v>
+      </c>
+      <c r="E46" s="3">
         <v>13791000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12599000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10856000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9303000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8071000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7155000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7357000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7915000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8347000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8730000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9045000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10720000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10921000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10343000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10106000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10626000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>11150000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10417000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9767000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>10435000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>11505000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3124,76 +3228,82 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>30345000</v>
+      </c>
+      <c r="E48" s="3">
         <v>30102000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29836000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29775000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29818000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29911000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29936000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29899000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29584000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29330000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>28841000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>28497000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>28010000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>23013000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>22923000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>22792000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>23002000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>22934000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>23115000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>23174000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>23293000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>26038000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3260,8 +3370,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3328,8 +3441,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3396,76 +3512,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2847000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3024000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3001000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3012000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3023000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3117000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3139000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2963000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3310000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3266000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3515000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3517000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3486000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3815000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3762000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3739000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3682000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3243000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3511000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3635000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3589000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3857000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3532,76 +3654,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>48022000</v>
+      </c>
+      <c r="E54" s="3">
         <v>46917000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>45436000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>43643000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>42144000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>41099000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>40230000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>40219000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>40809000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>40943000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>41086000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>41059000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>42216000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>37749000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37028000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>36637000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>37302000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>37327000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>37043000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>36576000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>37317000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>41400000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3626,8 +3754,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3652,321 +3781,334 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3495000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2949000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3106000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2866000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2670000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2533000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2471000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2374000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2532000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2686000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2645000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2553000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2608000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2383000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2420000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2208000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2441000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2098000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1880000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1780000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2393000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2347000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>372000</v>
+      </c>
+      <c r="E58" s="3">
         <v>897000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1057000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>656000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>34000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>47000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>90000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>245000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>4000</v>
       </c>
       <c r="M58" s="3">
         <v>4000</v>
       </c>
       <c r="N58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="O58" s="3">
         <v>3000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>17000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>4000</v>
       </c>
       <c r="Q58" s="3">
         <v>4000</v>
       </c>
       <c r="R58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="S58" s="3">
         <v>483000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1414000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2215000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2216000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2228000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1232000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>802000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2025000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1677000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1364000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1089000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>713000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>516000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>345000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>524000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>672000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>691000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>637000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>691000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>704000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1464000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1375000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1653000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1382000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1204000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>848000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>834000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>640000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1339000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5892000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5523000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5527000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4611000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3417000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3096000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2906000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3143000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3209000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3381000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3286000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3247000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3329000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3851000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3799000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4344000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4914000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5517000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4944000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4842000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4265000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4488000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9078000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8768000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8638000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9153000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9677000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9983000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9824000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9829000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9821000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9915000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9912000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9902000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11124000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>11123000</v>
       </c>
       <c r="Q61" s="3">
         <v>11123000</v>
@@ -3975,93 +4117,99 @@
         <v>11123000</v>
       </c>
       <c r="S61" s="3">
+        <v>11123000</v>
+      </c>
+      <c r="T61" s="3">
         <v>11815000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>12567000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>13138000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>13135000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>14795000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>18180000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10033000</v>
+      </c>
+      <c r="E62" s="3">
         <v>10095000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10336000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10306000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10382000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10458000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10345000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10284000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10331000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10105000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10071000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10069000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9871000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9321000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9264000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9244000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9277000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9013000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8968000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9012000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9000000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>8892000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4128,8 +4276,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4196,8 +4347,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4264,76 +4418,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>34042000</v>
+      </c>
+      <c r="E66" s="3">
         <v>33564000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>33425000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>32723000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>31970000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>31863000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>31276000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>31364000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31511000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31499000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31377000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31276000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>32418000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>27772000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>27554000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>27981000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>29325000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>30354000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>30370000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>30258000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>31266000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>36668000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4358,8 +4518,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4426,8 +4587,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4494,8 +4658,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4562,8 +4729,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4630,76 +4800,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7375000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8481000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9880000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10963000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11681000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12389000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12718000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12771000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12280000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12289000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12082000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12010000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12041000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12526000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13161000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-14030000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-14722000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-15763000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-16043000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-16311000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-16540000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-16832000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4766,8 +4942,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4834,8 +5013,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4902,76 +5084,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13980000</v>
+      </c>
+      <c r="E76" s="3">
         <v>13353000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12011000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10920000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10174000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9236000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8954000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8855000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9298000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9444000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9709000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9783000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9798000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9977000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9474000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8656000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7977000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6973000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6673000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6318000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6051000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4732000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5038,149 +5226,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1105000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1395000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1079000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>718000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>708000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>326000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-438000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-494000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-210000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-41000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>31000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>486000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>552000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>866000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>688000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1040000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>277000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>265000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>225000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>292000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5205,76 +5402,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>568000</v>
+      </c>
+      <c r="E83" s="3">
         <v>528000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>483000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>419000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>435000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>394000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>699000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>341000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>391000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>322000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>699000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>347000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>403000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>458000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>442000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>451000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>457000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>418000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>450000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>389000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>593000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>643000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5341,8 +5542,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5409,8 +5613,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5477,8 +5684,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5545,8 +5755,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5613,76 +5826,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2280000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1965000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2395000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1075000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1327000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1237000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>453000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-38000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>170000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>224000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1088000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>534000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-62000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1247000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1309000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1369000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1664000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1189000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1037000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>792000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1135000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>980000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5707,52 +5926,53 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4000</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-1000</v>
       </c>
       <c r="R91" s="3">
         <v>-1000</v>
@@ -5761,22 +5981,25 @@
         <v>-1000</v>
       </c>
       <c r="T91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U91" s="3">
         <v>-2000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-688000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-329000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-494000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5843,8 +6066,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5911,76 +6137,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-733000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-398000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-465000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-368000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>169000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-407000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1026000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-546000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-278000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-658000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1167000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-546000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3546000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-502000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-478000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-492000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-367000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-251000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-342000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-361000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>4444000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-359000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6005,20 +6237,21 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-109000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-111000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -6026,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-73000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>-73000</v>
@@ -6035,26 +6268,26 @@
         <v>-73000</v>
       </c>
       <c r="L96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-72000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-146000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-73000</v>
       </c>
       <c r="O96" s="3">
         <v>-73000</v>
       </c>
       <c r="P96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-72000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-73000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -6062,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="V96" s="3">
         <v>-1000</v>
@@ -6071,10 +6304,13 @@
         <v>-1000</v>
       </c>
       <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-1000</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6141,8 +6377,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6209,8 +6448,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6277,76 +6519,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1152000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-217000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-196000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>225000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-248000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>96000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>24000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>173000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-126000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-60000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1370000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1331000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3240000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-63000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-689000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1588000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-583000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-25000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-679000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2418000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6380,105 +6628,111 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-55000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>11000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>12000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>32000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>45000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-52000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>8000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-6000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>395000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1350000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1734000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>932000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1248000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>926000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-549000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-411000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-234000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-494000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1449000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-423000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>693000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>154000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-679000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-436000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>297000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>669000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-240000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3155000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>756000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>FCX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,320 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="25" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="26" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6603000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6164000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6083000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5748000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4850000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4495000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3851000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5852000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2798000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3911000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3153000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7338000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3792000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3684000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4908000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5168000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4868000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5041000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4310000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3711000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3341000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4377000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3877000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3639000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3723000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3551000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3550000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3206000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3066000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2835000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5381000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3099000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3398000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3036000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6678000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3378000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3301000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3518000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3351000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3257000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6073000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6023000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7629000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4778000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3342000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3192000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2964000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2441000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2532000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2198000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1644000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1429000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1016000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>471000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-301000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>513000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>117000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>660000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>414000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>383000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1390000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1817000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1611000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-1032000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-1713000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-3918000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-1437000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1035000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>685000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,79 +1004,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E12" s="3">
         <v>19000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>27000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>25000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>58000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>27000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>33000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>27000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>24000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>21000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>33000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>27000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>19000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>14000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>18000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1133,13 +1150,16 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1151,61 +1171,64 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>93000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>263000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>65000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>21000</v>
-      </c>
-      <c r="N14" s="3">
-        <v>6000</v>
       </c>
       <c r="O14" s="3">
         <v>6000</v>
       </c>
       <c r="P14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-9000</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-13000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-11000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>25000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1275,8 +1298,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1299,150 +1325,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3794000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3859000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3621000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3681000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3318000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2787000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3030000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6045000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3303000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3136000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3212000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6990000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3477000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3369000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3593000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3495000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3409000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3549000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3371000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3029000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2744000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3699000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3503000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2809000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2305000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2462000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2067000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1532000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1708000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>821000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-193000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-505000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>775000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-59000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>348000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>315000</v>
       </c>
       <c r="P18" s="3">
         <v>315000</v>
       </c>
       <c r="Q18" s="3">
+        <v>315000</v>
+      </c>
+      <c r="R18" s="3">
         <v>1315000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1673000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1459000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1492000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>939000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>682000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>597000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>678000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>374000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1468,363 +1501,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-161000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>36000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>9000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>11000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>22000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>40000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>20000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-190000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>33000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>19000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>13000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>20000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>28000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-9000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-7000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>8000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3329000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2712000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3026000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2559000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1962000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2140000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1237000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>546000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-144000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>976000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>296000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1066000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>676000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>731000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1787000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2135000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1938000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1950000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1348000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1125000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>994000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1266000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1007000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E22" s="3">
         <v>171000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>138000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>148000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>145000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>236000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>120000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>242000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>127000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>219000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>123000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>278000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>146000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>509000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>143000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>142000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>151000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>168000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>304000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>162000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>167000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>181000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>187000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2713000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1973000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2360000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1928000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1398000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1469000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>723000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-395000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-612000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>366000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-149000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>89000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>183000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-181000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1186000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1551000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1336000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1325000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>626000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>513000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>438000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>492000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>177000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>824000</v>
+      </c>
+      <c r="E24" s="3">
         <v>625000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>628000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>603000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>443000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>611000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>297000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>36000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-60000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>329000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>91000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>90000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>105000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-429000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>522000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>515000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>506000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>529000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>387000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>186000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>174000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>292000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-114000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1894,150 +1943,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1889000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1348000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1732000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1325000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>955000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>858000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>426000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-431000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-552000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>37000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-240000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>78000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>248000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>664000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1036000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>830000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>796000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>239000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>327000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>264000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>200000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1522000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1105000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1395000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1079000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>718000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>708000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>326000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-438000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-494000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-211000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-42000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>30000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>359000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>556000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>870000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>699000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>631000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>274000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>257000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>190000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>313000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2107,16 +2165,19 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -2124,8 +2185,8 @@
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -2137,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M29" s="3">
         <v>1000</v>
@@ -2149,37 +2210,40 @@
         <v>1000</v>
       </c>
       <c r="P29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q29" s="3">
         <v>127000</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>-4000</v>
       </c>
       <c r="R29" s="3">
         <v>-4000</v>
       </c>
       <c r="S29" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="T29" s="3">
         <v>-11000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>409000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>3000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>8000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>35000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-21000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2249,8 +2313,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2320,150 +2387,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E32" s="3">
         <v>161000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-36000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-9000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-11000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-22000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-40000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-20000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>190000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-33000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-19000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-20000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-28000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>9000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>7000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-8000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>5000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1522000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1105000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1395000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1079000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>718000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>708000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>326000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-438000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-494000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-210000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-41000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>31000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>486000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>552000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>866000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>688000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1040000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>277000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>265000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>225000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>292000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2533,155 +2609,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1522000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1105000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1395000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1079000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>718000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>708000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>326000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-438000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-494000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-210000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-41000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>31000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>486000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>552000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>866000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>688000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1040000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>277000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>265000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>225000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>292000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2707,8 +2792,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2734,79 +2820,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8338000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8068000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7672000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6313000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4580000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3657000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2403000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1465000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1602000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2020000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2247000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2623000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2833000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4217000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4556000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3859000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3702000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4526000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4957000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4667000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4001000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4245000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1108000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2876,292 +2966,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1981000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1742000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1522000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1678000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1770000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1412000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1357000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1363000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1093000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1101000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>994000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>944000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1121000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1319000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1282000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1302000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1444000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1514000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1546000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1434000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1399000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1975000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4454000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4497000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4120000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4218000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4145000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3893000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3892000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3810000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3854000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4073000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4434000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4377000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4461000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4759000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4047000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4176000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3885000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4149000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3857000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3642000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3763000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3642000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3685000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>529000</v>
+      </c>
+      <c r="E45" s="3">
         <v>523000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>477000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>390000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>361000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>341000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>419000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>517000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>808000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>721000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>672000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>786000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>630000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>425000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1036000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1006000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1075000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>945000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>790000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>674000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>604000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>573000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15302000</v>
+      </c>
+      <c r="E46" s="3">
         <v>14830000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13791000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12599000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10856000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9303000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8071000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7155000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7357000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7915000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8347000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8730000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9045000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10720000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10921000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10343000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10106000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10626000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>11150000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10417000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9767000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>10435000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>11505000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3231,79 +3336,85 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>30708000</v>
+      </c>
+      <c r="E48" s="3">
         <v>30345000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>30102000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29836000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29775000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29818000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29911000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29936000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29899000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29584000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29330000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>28841000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>28497000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>28010000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>23013000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>22923000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>22792000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>23002000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>22934000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>23115000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>23174000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>23293000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>26038000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3373,8 +3484,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3444,8 +3558,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3515,79 +3632,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2822000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2847000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3024000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3001000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3012000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3023000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3117000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3139000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2963000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3310000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3266000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3515000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3517000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3486000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3815000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3762000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3739000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3682000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3243000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3511000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3635000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3589000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3857000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3657,79 +3780,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>48832000</v>
+      </c>
+      <c r="E54" s="3">
         <v>48022000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>46917000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>45436000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>43643000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>42144000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>41099000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>40230000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>40219000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>40809000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>40943000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>41086000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>41059000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>42216000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37749000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37028000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>36637000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>37302000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>37327000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>37043000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>36576000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>37317000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>41400000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3755,8 +3884,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3782,336 +3912,349 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3163000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3495000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2949000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3106000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2866000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2670000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2533000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2471000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2374000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2532000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2686000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2645000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2553000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2608000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2383000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2420000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2208000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2441000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2098000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1880000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1780000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2393000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2347000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1365000</v>
+      </c>
+      <c r="E58" s="3">
         <v>372000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>897000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1057000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>656000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>34000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>47000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>90000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>245000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>4000</v>
       </c>
       <c r="N58" s="3">
         <v>4000</v>
       </c>
       <c r="O58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="P58" s="3">
         <v>3000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>17000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>4000</v>
       </c>
       <c r="R58" s="3">
         <v>4000</v>
       </c>
       <c r="S58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T58" s="3">
         <v>483000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1414000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2215000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2216000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2228000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1232000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>802000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1926000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2025000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1677000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1364000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1089000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>713000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>516000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>345000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>524000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>672000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>691000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>637000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>691000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>704000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1464000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1375000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1653000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1382000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1204000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>848000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>834000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>640000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1339000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6454000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5892000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5523000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5527000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4611000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3417000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3096000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2906000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3143000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3209000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3381000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3286000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3247000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3329000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3851000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3799000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4344000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4914000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5517000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4944000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4842000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4265000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4488000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8256000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9078000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8768000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8638000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9153000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9677000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9983000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9824000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9829000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9821000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9915000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9912000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9902000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11124000</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>11123000</v>
       </c>
       <c r="R61" s="3">
         <v>11123000</v>
@@ -4120,96 +4263,102 @@
         <v>11123000</v>
       </c>
       <c r="T61" s="3">
+        <v>11123000</v>
+      </c>
+      <c r="U61" s="3">
         <v>11815000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>12567000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>13138000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>13135000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>14795000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>18180000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10080000</v>
+      </c>
+      <c r="E62" s="3">
         <v>10033000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10095000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10336000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10306000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10382000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10458000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10345000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10284000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10331000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10105000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10071000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10069000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9871000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9321000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9264000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9244000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9277000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9013000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8968000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9012000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9000000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>8892000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4279,8 +4428,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4350,8 +4502,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4421,79 +4576,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>33966000</v>
+      </c>
+      <c r="E66" s="3">
         <v>34042000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>33564000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>33425000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>32723000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>31970000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>31863000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>31276000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31364000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31511000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31499000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31377000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31276000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>32418000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>27772000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>27554000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>27981000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>29325000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>30354000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>30370000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>30258000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>31266000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>36668000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4519,8 +4680,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4590,8 +4752,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4661,8 +4826,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4732,8 +4900,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4803,79 +4974,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5848000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7375000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8481000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9880000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10963000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11681000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12389000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12718000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12771000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12280000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12289000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12082000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12010000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12041000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12526000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13161000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-14030000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-14722000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-15763000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-16043000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-16311000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-16540000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-16832000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4945,8 +5122,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5016,8 +5196,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5087,79 +5270,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14866000</v>
+      </c>
+      <c r="E76" s="3">
         <v>13980000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13353000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12011000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10920000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10174000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9236000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8954000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8855000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9298000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9444000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9709000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9783000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9798000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9977000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9474000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8656000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7977000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6973000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6673000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6318000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6051000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4732000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5229,155 +5418,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1522000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1105000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1395000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1079000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>718000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>708000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>326000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-438000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-494000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-210000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-41000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>31000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>486000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>552000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>866000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>688000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1040000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>277000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>265000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>225000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>292000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5403,79 +5601,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>489000</v>
+      </c>
+      <c r="E83" s="3">
         <v>568000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>528000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>483000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>419000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>435000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>394000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>699000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>341000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>391000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>322000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>699000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>347000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>403000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>458000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>442000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>451000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>457000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>418000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>450000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>389000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>593000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>643000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5545,8 +5747,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5616,8 +5821,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5687,8 +5895,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5758,8 +5969,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5829,79 +6043,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1691000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2280000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1965000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2395000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1075000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1327000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1237000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>453000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-38000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>170000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>224000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1088000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>534000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-62000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1247000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1309000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1369000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1664000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1189000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1037000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>792000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1135000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>980000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5927,55 +6147,56 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4000</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-1000</v>
       </c>
       <c r="S91" s="3">
         <v>-1000</v>
@@ -5984,22 +6205,25 @@
         <v>-1000</v>
       </c>
       <c r="U91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V91" s="3">
         <v>-2000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-688000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-329000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-494000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6069,8 +6293,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6140,79 +6367,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-714000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-733000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-398000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-465000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-368000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>169000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-407000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1026000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-546000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-278000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-658000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1167000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-546000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3546000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-502000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-478000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-492000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-367000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-251000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-342000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-361000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>4444000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-359000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6238,23 +6471,24 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-220000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-111000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-109000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-111000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -6262,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-73000</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-73000</v>
@@ -6271,26 +6505,26 @@
         <v>-73000</v>
       </c>
       <c r="M96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-72000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-146000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-73000</v>
       </c>
       <c r="P96" s="3">
         <v>-73000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-72000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-73000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -6298,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="W96" s="3">
         <v>-1000</v>
@@ -6307,10 +6541,13 @@
         <v>-1000</v>
       </c>
       <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-1000</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6380,8 +6617,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6451,8 +6691,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6522,79 +6765,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-703000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1152000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-217000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-196000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>225000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-248000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>96000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>24000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>173000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-126000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-60000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1370000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1331000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3240000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-63000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-689000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1588000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-583000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-25000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-679000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2418000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6631,108 +6880,114 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>11000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>12000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>32000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>45000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-52000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>8000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>274000</v>
+      </c>
+      <c r="E102" s="3">
         <v>395000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1350000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1734000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>932000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1248000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>926000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-549000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-411000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-234000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-494000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1449000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-423000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>693000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>154000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-679000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-436000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>297000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>669000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-240000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>3155000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>756000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="26" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="27" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5416000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6603000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6164000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6083000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5748000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4850000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4495000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3851000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5852000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2798000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3911000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3153000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7338000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3792000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3684000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4908000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5168000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4868000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5041000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4310000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3711000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3341000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4377000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3877000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3639000</v>
+        <v>3528000</v>
       </c>
       <c r="E9" s="3">
+        <v>3640000</v>
+      </c>
+      <c r="F9" s="3">
         <v>3723000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3551000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3550000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3206000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3066000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2835000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5381000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3099000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3398000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3036000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6678000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3378000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3301000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3518000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3351000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3257000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6073000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6023000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7629000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4778000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3342000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3192000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2964000</v>
+        <v>1888000</v>
       </c>
       <c r="E10" s="3">
+        <v>2963000</v>
+      </c>
+      <c r="F10" s="3">
         <v>2441000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2532000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2198000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1644000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1429000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1016000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>471000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-301000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>513000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>117000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>660000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>414000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>383000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1390000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1817000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1611000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-1032000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-1713000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-3918000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-1437000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1035000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>685000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,82 +1018,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E12" s="3">
         <v>24000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>19000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>27000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>25000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>58000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>27000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>33000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>27000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>24000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>21000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>33000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>27000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>19000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>14000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>18000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1153,13 +1170,16 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>-8000</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1174,61 +1194,64 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>93000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>263000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>65000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>21000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>6000</v>
       </c>
       <c r="P14" s="3">
         <v>6000</v>
       </c>
       <c r="Q14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-9000</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-13000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-11000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>4000</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>25000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1301,8 +1324,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1326,156 +1352,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3672000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3794000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3859000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3621000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3681000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3318000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2787000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3030000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6045000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3303000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3136000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3212000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6990000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3477000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3369000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3593000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3495000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3409000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3549000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3371000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3029000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2744000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3699000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3503000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1744000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2809000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2305000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2462000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2067000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1532000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1708000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>821000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-193000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-505000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>775000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-59000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>348000</v>
-      </c>
-      <c r="P18" s="3">
-        <v>315000</v>
       </c>
       <c r="Q18" s="3">
         <v>315000</v>
       </c>
       <c r="R18" s="3">
+        <v>315000</v>
+      </c>
+      <c r="S18" s="3">
         <v>1315000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1673000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1459000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1492000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>939000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>682000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>597000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>678000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>374000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1502,378 +1535,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E20" s="3">
         <v>31000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-161000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>36000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>9000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>11000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>22000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>40000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>20000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-190000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>33000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>19000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>14000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>13000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>20000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>28000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-9000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-7000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>8000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2262000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3329000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2712000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3026000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2559000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1962000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2140000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1237000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>546000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-144000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>976000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>296000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1066000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>676000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>731000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1787000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2135000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1938000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1950000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1348000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1125000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>994000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1266000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1007000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E22" s="3">
         <v>127000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>171000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>138000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>148000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>145000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>236000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>120000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>242000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>127000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>219000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>123000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>278000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>146000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>509000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>143000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>142000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>151000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>168000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>304000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>162000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>167000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>181000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>187000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1599000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2713000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1973000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2360000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1928000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1398000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1469000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>723000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-395000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-612000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>366000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-149000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>89000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>183000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-181000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1186000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1551000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1336000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1325000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>626000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>513000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>438000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>492000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>177000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>571000</v>
+      </c>
+      <c r="E24" s="3">
         <v>824000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>625000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>628000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>603000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>443000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>611000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>297000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>36000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-60000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>329000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>91000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>90000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>105000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-429000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>522000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>515000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>506000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>529000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>387000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>186000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>174000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>292000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-114000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1946,156 +1995,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1028000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1889000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1348000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1732000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1325000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>955000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>858000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>426000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-431000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-552000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>37000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-240000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>78000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>248000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>664000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1036000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>830000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>796000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>239000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>327000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>264000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>200000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1522000</v>
+        <v>836000</v>
       </c>
       <c r="E27" s="3">
+        <v>1526000</v>
+      </c>
+      <c r="F27" s="3">
         <v>1105000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1395000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1079000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>718000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>708000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>326000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-438000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-494000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-211000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-42000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>30000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>359000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>556000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>870000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>699000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>631000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>274000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>257000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>190000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>313000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2168,19 +2226,22 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -2188,8 +2249,8 @@
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2201,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N29" s="3">
         <v>1000</v>
@@ -2213,37 +2274,40 @@
         <v>1000</v>
       </c>
       <c r="Q29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R29" s="3">
         <v>127000</v>
-      </c>
-      <c r="R29" s="3">
-        <v>-4000</v>
       </c>
       <c r="S29" s="3">
         <v>-4000</v>
       </c>
       <c r="T29" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="U29" s="3">
         <v>-11000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>409000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>3000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>8000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>35000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-21000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2316,8 +2380,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2390,156 +2457,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-31000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>161000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-36000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-9000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-11000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-22000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-40000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-20000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>190000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-33000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-19000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-13000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-20000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-28000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>9000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>7000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>5000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1522000</v>
+        <v>836000</v>
       </c>
       <c r="E33" s="3">
+        <v>1526000</v>
+      </c>
+      <c r="F33" s="3">
         <v>1105000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1395000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1079000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>718000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>708000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>326000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-438000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-494000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-210000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-41000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>31000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>486000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>552000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>866000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>688000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1040000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>277000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>265000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>225000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>292000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2612,161 +2688,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1522000</v>
+        <v>836000</v>
       </c>
       <c r="E35" s="3">
+        <v>1526000</v>
+      </c>
+      <c r="F35" s="3">
         <v>1105000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1395000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1079000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>718000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>708000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>326000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-438000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-494000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-210000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-41000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>31000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>486000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>552000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>866000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>688000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1040000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>277000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>265000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>225000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>292000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2793,8 +2878,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2821,82 +2907,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9492000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8338000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8068000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7672000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6313000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4580000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3657000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2403000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1465000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1602000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2020000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2247000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2623000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2833000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4217000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4556000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3859000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3702000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4526000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4957000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4667000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4001000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4245000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1108000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2969,304 +3059,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1412000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1981000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1742000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1522000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1678000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1770000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1412000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1357000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1363000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1093000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1101000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>994000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>944000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1121000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1319000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1282000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1302000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1444000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1514000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1546000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1434000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1399000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1975000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4670000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4454000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4497000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4120000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4218000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4145000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3893000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3892000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3810000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3854000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4073000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4434000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4377000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4461000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4759000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4047000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4176000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3885000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4149000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3857000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3642000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3763000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3642000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3685000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>608000</v>
+      </c>
+      <c r="E45" s="3">
         <v>529000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>523000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>477000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>390000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>361000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>341000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>419000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>517000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>808000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>721000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>672000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>786000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>630000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>425000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1036000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1006000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1075000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>945000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>790000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>674000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>604000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>573000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16182000</v>
+      </c>
+      <c r="E46" s="3">
         <v>15302000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14830000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13791000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12599000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10856000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9303000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8071000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7155000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7357000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7915000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8347000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8730000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9045000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10720000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10921000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10343000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10106000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10626000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>11150000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>10417000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9767000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>10435000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>11505000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3339,82 +3444,88 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>31200000</v>
+      </c>
+      <c r="E48" s="3">
         <v>30708000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>30345000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>30102000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29836000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29775000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29818000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29911000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29936000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29899000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29584000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>29330000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>28841000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>28497000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>28010000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>23013000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>22923000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>22792000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>23002000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>22934000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>23115000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>23174000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>23293000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>26038000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3487,8 +3598,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3561,8 +3675,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3635,82 +3752,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2731000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2822000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2847000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3024000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3001000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3012000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3023000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3117000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3139000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2963000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3310000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3266000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3515000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3517000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3486000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3815000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3762000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3739000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3682000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3243000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3511000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3635000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3589000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3857000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3783,82 +3906,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>50113000</v>
+      </c>
+      <c r="E54" s="3">
         <v>48832000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>48022000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>46917000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>45436000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>43643000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>42144000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>41099000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>40230000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>40219000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>40809000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>40943000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>41086000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>41059000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>42216000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37749000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>37028000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>36637000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>37302000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>37327000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>37043000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>36576000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>37317000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>41400000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3885,8 +4014,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3913,351 +4043,364 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3853000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3163000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3495000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2949000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3106000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2866000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2670000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2533000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2471000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2374000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2532000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2686000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2645000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2553000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2608000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2383000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2420000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2208000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2441000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2098000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1880000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1780000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2393000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2347000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1038000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1365000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>372000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>897000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1057000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>656000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>34000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>47000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>90000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>245000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>4000</v>
       </c>
       <c r="O58" s="3">
         <v>4000</v>
       </c>
       <c r="P58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>3000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>17000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>4000</v>
       </c>
       <c r="S58" s="3">
         <v>4000</v>
       </c>
       <c r="T58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="U58" s="3">
         <v>483000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1414000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2215000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2216000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2228000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1232000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>802000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1041000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1926000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2025000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1677000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1364000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1089000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>713000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>516000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>345000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>524000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>672000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>691000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>637000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>691000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>704000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1464000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1375000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1653000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1382000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1204000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>848000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>834000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>640000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1339000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5932000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6454000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5892000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5523000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5527000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4611000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3417000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3096000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2906000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3143000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3209000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3381000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3286000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3247000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3329000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3851000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3799000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4344000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4914000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5517000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4944000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4842000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4265000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4488000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10054000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8256000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9078000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8768000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8638000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9153000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9677000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9983000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9824000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9829000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9821000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9915000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9912000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9902000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11124000</v>
-      </c>
-      <c r="R61" s="3">
-        <v>11123000</v>
       </c>
       <c r="S61" s="3">
         <v>11123000</v>
@@ -4266,25 +4409,28 @@
         <v>11123000</v>
       </c>
       <c r="U61" s="3">
+        <v>11123000</v>
+      </c>
+      <c r="V61" s="3">
         <v>11815000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>12567000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>13138000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>13135000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>14795000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>18180000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4292,73 +4438,76 @@
         <v>10080000</v>
       </c>
       <c r="E62" s="3">
+        <v>10080000</v>
+      </c>
+      <c r="F62" s="3">
         <v>10033000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10095000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10336000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10306000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10382000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10458000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10345000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10284000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10331000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10105000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10071000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10069000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9871000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9321000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9264000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9244000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9277000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9013000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>8968000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9012000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9000000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>8892000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4431,8 +4580,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4505,8 +4657,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4579,82 +4734,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>35224000</v>
+      </c>
+      <c r="E66" s="3">
         <v>33966000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>34042000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>33564000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>33425000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>32723000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>31970000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>31863000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31276000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31364000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31511000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31499000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31377000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31276000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>32418000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>27772000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>27554000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>27981000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>29325000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>30354000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>30370000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>30258000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>31266000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>36668000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4681,8 +4842,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4755,8 +4917,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4829,8 +4994,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4903,8 +5071,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4977,82 +5148,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5008000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5848000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7375000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8481000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9880000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10963000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11681000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12389000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12718000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12771000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12280000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12289000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12082000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12010000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12041000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12526000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13161000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-14030000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-14722000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-15763000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-16043000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-16311000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-16540000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-16832000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5125,8 +5302,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5199,8 +5379,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5273,82 +5456,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14889000</v>
+      </c>
+      <c r="E76" s="3">
         <v>14866000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13980000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13353000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12011000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10920000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10174000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9236000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8954000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8855000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9298000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9444000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9709000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9783000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9798000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9977000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9474000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8656000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7977000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6973000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6673000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6318000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6051000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>4732000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5421,161 +5610,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1522000</v>
+        <v>836000</v>
       </c>
       <c r="E81" s="3">
+        <v>1526000</v>
+      </c>
+      <c r="F81" s="3">
         <v>1105000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1395000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1079000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>718000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>708000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>326000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-438000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-494000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-210000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-41000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>31000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>486000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>552000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>866000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>688000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1040000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>277000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>265000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>225000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>292000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5602,82 +5800,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>507000</v>
+      </c>
+      <c r="E83" s="3">
         <v>489000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>568000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>528000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>483000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>419000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>435000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>394000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>699000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>341000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>391000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>322000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>699000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>347000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>403000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>458000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>442000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>451000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>457000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>418000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>450000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>389000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>593000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>643000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5750,8 +5952,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5824,8 +6029,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5898,8 +6106,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5972,8 +6183,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6046,82 +6260,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1621000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1691000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2280000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1965000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2395000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1075000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1327000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1237000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>453000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-38000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>170000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>224000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1088000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>534000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-62000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1247000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1309000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1369000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1664000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1189000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1037000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>792000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1135000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>980000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6148,58 +6368,59 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4000</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-1000</v>
       </c>
       <c r="T91" s="3">
         <v>-1000</v>
@@ -6208,22 +6429,25 @@
         <v>-1000</v>
       </c>
       <c r="V91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W91" s="3">
         <v>-2000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-688000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-329000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-494000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6296,8 +6520,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6370,82 +6597,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-816000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-714000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-733000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-398000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-465000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-368000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>169000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-407000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1026000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-546000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-278000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-658000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1167000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-546000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3546000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-502000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-478000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-492000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-367000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-251000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-342000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-361000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>4444000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-359000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6472,26 +6705,27 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-218000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-220000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-111000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-109000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-111000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -6499,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>-73000</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-73000</v>
@@ -6508,26 +6742,26 @@
         <v>-73000</v>
       </c>
       <c r="N96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-72000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-146000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-73000</v>
       </c>
       <c r="Q96" s="3">
         <v>-73000</v>
       </c>
       <c r="R96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-72000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-73000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -6535,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="X96" s="3">
         <v>-1000</v>
@@ -6544,10 +6778,13 @@
         <v>-1000</v>
       </c>
       <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+        <v>-1000</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6620,8 +6857,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6694,8 +6934,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6768,82 +7011,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>352000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-703000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1152000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-217000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-196000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>225000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-248000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>96000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>24000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>173000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-126000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-60000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1370000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1331000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3240000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-63000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-689000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1588000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-583000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-25000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-679000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2418000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6883,111 +7132,117 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-55000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>11000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>12000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>32000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>45000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-52000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>8000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1157000</v>
+      </c>
+      <c r="E102" s="3">
         <v>274000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>395000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1350000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1734000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>932000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1248000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>926000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-549000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-411000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-234000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-494000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1449000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-423000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>693000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>154000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-679000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-436000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>297000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>669000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-240000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3155000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>756000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>FCX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="27" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="28" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5003000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5416000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6603000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6164000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6083000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5748000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4850000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4495000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3851000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5852000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2798000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3911000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3153000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7338000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3792000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3684000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4908000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5168000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4868000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5041000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4310000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3711000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3341000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4377000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3877000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3899000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3528000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3640000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3723000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3551000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3550000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3206000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3066000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2835000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5381000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3099000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3398000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3036000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6678000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3378000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3301000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3518000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3351000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3257000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6073000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6023000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7629000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4778000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3342000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3192000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1104000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1888000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2963000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2441000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2532000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2198000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1644000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1429000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1016000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>471000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-301000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>513000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>117000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>660000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>414000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>383000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1390000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1817000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1611000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-1032000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-1713000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-3918000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-1437000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1035000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>685000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,85 +1032,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E12" s="3">
         <v>25000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>19000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>15000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>27000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>25000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>58000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>27000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>33000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>27000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>24000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>21000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>33000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>27000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>19000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>14000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>18000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1173,17 +1190,20 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-8000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1197,61 +1217,64 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>93000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>263000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>65000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>21000</v>
-      </c>
-      <c r="P14" s="3">
-        <v>6000</v>
       </c>
       <c r="Q14" s="3">
         <v>6000</v>
       </c>
       <c r="R14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-9000</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-13000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-11000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>4000</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>25000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1327,8 +1350,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1353,162 +1379,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4021000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3672000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3794000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3859000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3621000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3681000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3318000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2787000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3030000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6045000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3303000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3136000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3212000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6990000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3477000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3369000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3593000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3495000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3409000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3549000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3371000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3029000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2744000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3699000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3503000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>982000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1744000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2809000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2305000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2462000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2067000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1532000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1708000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>821000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-193000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-505000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>775000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-59000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>348000</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>315000</v>
       </c>
       <c r="R18" s="3">
         <v>315000</v>
       </c>
       <c r="S18" s="3">
+        <v>315000</v>
+      </c>
+      <c r="T18" s="3">
         <v>1315000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1673000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1459000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1492000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>939000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>682000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>597000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>678000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>374000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1536,393 +1569,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E20" s="3">
         <v>11000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>31000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-161000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>36000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>9000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>11000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>22000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>40000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>20000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-190000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>33000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>19000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>13000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>14000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>20000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>28000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-9000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>8000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1515000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2262000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3329000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2712000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3026000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2559000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1962000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2140000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1237000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>546000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-144000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>976000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>296000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1066000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>676000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>731000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1787000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2135000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1938000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1950000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1348000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1125000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>994000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1266000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1007000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E22" s="3">
         <v>156000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>127000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>171000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>138000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>148000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>145000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>236000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>120000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>242000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>127000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>219000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>123000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>278000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>146000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>509000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>143000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>142000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>151000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>168000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>304000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>162000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>167000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>181000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>187000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>867000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1599000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2713000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1973000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2360000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1928000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1398000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1469000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>723000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-395000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-612000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>366000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-149000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>89000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>183000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-181000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1186000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1551000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1336000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1325000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>626000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>513000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>438000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>492000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>177000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>315000</v>
+      </c>
+      <c r="E24" s="3">
         <v>571000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>824000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>625000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>628000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>603000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>443000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>611000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>297000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>36000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-60000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>329000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>91000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>90000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>105000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-429000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>522000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>515000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>506000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>529000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>387000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>186000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>174000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>292000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-114000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1998,162 +2047,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>552000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1028000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1889000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1348000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1732000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1325000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>955000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>858000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>426000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-431000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-552000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>37000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-240000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>78000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>248000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>664000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1036000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>830000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>796000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>239000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>327000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>264000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>200000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>399000</v>
+      </c>
+      <c r="E27" s="3">
         <v>836000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1526000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1105000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1395000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1079000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>718000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>708000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>326000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-438000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-494000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-211000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>30000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>359000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>556000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>870000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>699000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>631000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>274000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>257000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>190000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>313000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2229,8 +2287,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2240,11 +2301,11 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -2252,8 +2313,8 @@
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2265,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O29" s="3">
         <v>1000</v>
@@ -2277,37 +2338,40 @@
         <v>1000</v>
       </c>
       <c r="R29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S29" s="3">
         <v>127000</v>
-      </c>
-      <c r="S29" s="3">
-        <v>-4000</v>
       </c>
       <c r="T29" s="3">
         <v>-4000</v>
       </c>
       <c r="U29" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="V29" s="3">
         <v>-11000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>409000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>3000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>8000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>35000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-21000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2383,8 +2447,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2460,162 +2527,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-31000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>161000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-36000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-9000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-11000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-22000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-40000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-20000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>190000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-33000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-13000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-14000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-20000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-28000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>9000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>7000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>5000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>399000</v>
+      </c>
+      <c r="E33" s="3">
         <v>836000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1526000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1105000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1395000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1079000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>718000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>708000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>326000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-438000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-494000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-210000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>31000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>486000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>552000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>866000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>688000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1040000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>277000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>265000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>225000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>292000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2691,167 +2767,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>399000</v>
+      </c>
+      <c r="E35" s="3">
         <v>836000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1526000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1105000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1395000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1079000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>718000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>708000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>326000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-438000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-494000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-210000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>31000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>486000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>552000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>866000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>688000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1040000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>277000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>265000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>225000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>292000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2879,8 +2964,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2908,85 +2994,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8578000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9492000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8338000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8068000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7672000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6313000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4580000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3657000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2403000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1465000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1602000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2020000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2247000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2623000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2833000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4217000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4556000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3859000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3702000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4526000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4957000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4667000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4001000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4245000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1108000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3062,316 +3152,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1329000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1412000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1981000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1742000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1522000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1678000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1770000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1412000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1357000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1363000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1093000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1101000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>994000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>944000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1121000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1319000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1282000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1302000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1444000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1514000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1546000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1434000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1399000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1975000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4819000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4670000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4454000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4497000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4120000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4218000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4145000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3893000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3892000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3810000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3854000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4073000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4434000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4377000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4461000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4759000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4047000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4176000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3885000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4149000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3857000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3642000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3763000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3642000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3685000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>647000</v>
+      </c>
+      <c r="E45" s="3">
         <v>608000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>529000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>523000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>477000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>390000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>361000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>341000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>419000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>517000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>808000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>721000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>672000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>786000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>630000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>425000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1036000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1006000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1075000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>945000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>790000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>674000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>604000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>573000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15373000</v>
+      </c>
+      <c r="E46" s="3">
         <v>16182000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15302000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14830000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13791000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12599000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10856000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9303000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8071000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7155000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7357000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7915000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8347000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8730000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9045000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10720000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10921000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10343000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10106000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10626000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>11150000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>10417000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>9767000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>10435000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>11505000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3447,85 +3552,91 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>31814000</v>
+      </c>
+      <c r="E48" s="3">
         <v>31200000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>30708000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>30345000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>30102000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29836000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29775000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29818000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29911000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29936000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29899000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>29584000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>29330000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>28841000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>28497000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>28010000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>23013000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>22923000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>22792000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>23002000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>22934000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>23115000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>23174000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>23293000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>26038000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3601,8 +3712,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3678,8 +3792,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3755,85 +3872,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2740000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2731000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2822000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2847000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3024000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3001000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3012000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3023000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3117000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3139000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2963000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3310000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3266000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3515000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3517000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3486000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3815000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3762000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3739000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3682000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3243000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3511000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3635000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3589000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3857000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3909,85 +4032,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>49927000</v>
+      </c>
+      <c r="E54" s="3">
         <v>50113000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>48832000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>48022000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>46917000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>45436000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>43643000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>42144000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41099000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>40230000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>40219000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>40809000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>40943000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>41086000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>41059000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>42216000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>37749000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>37028000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>36637000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>37302000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>37327000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>37043000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>36576000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>37317000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>41400000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4015,8 +4144,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4044,366 +4174,379 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3947000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3853000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3163000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3495000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2949000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3106000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2866000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2670000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2533000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2471000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2374000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2532000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2686000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2645000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2553000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2608000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2383000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2420000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2208000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2441000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2098000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1880000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1780000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2393000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2347000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1032000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1038000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1365000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>372000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>897000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1057000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>656000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>34000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>47000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>90000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>245000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>4000</v>
       </c>
       <c r="P58" s="3">
         <v>4000</v>
       </c>
       <c r="Q58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="R58" s="3">
         <v>3000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>17000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>4000</v>
       </c>
       <c r="T58" s="3">
         <v>4000</v>
       </c>
       <c r="U58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="V58" s="3">
         <v>483000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1414000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2215000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2216000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2228000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1232000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>802000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1020000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1041000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1926000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2025000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1677000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1364000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1089000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>713000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>516000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>345000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>524000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>672000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>691000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>637000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>691000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>704000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1464000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1375000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1653000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1382000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1204000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>848000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>834000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>640000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1339000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5999000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5932000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6454000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5892000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5523000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5527000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4611000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3417000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3096000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2906000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3143000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3209000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3381000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3286000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3247000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3329000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3851000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3799000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4344000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4914000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5517000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4944000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4842000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4265000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4488000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9658000</v>
+      </c>
+      <c r="E61" s="3">
         <v>10054000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8256000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9078000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8768000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8638000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9153000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9677000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9983000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9824000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9829000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9821000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9915000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9912000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9902000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11124000</v>
-      </c>
-      <c r="S61" s="3">
-        <v>11123000</v>
       </c>
       <c r="T61" s="3">
         <v>11123000</v>
@@ -4412,102 +4555,108 @@
         <v>11123000</v>
       </c>
       <c r="V61" s="3">
+        <v>11123000</v>
+      </c>
+      <c r="W61" s="3">
         <v>11815000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>12567000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>13138000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>13135000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>14795000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>18180000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10080000</v>
+        <v>10089000</v>
       </c>
       <c r="E62" s="3">
         <v>10080000</v>
       </c>
       <c r="F62" s="3">
+        <v>10080000</v>
+      </c>
+      <c r="G62" s="3">
         <v>10033000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10095000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10336000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10306000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10382000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10458000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10345000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10284000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10331000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10105000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10071000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10069000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9871000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9321000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9264000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9244000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9277000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9013000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>8968000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9012000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9000000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>8892000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4583,8 +4732,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4660,8 +4812,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4737,85 +4892,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>34973000</v>
+      </c>
+      <c r="E66" s="3">
         <v>35224000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>33966000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>34042000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>33564000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>33425000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>32723000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>31970000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31863000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31276000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31364000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31511000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31499000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31377000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>31276000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>32418000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>27772000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>27554000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>27981000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>29325000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>30354000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>30370000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>30258000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>31266000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>36668000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4843,8 +5004,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4920,8 +5082,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4997,8 +5162,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5074,8 +5242,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5151,85 +5322,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4604000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5008000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5848000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7375000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8481000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9880000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10963000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11681000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12389000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12718000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12771000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12280000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12289000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12082000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12010000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12041000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12526000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13161000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-14030000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-14722000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-15763000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-16043000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-16311000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-16540000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-16832000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5305,8 +5482,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5382,8 +5562,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5459,85 +5642,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14954000</v>
+      </c>
+      <c r="E76" s="3">
         <v>14889000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14866000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13980000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13353000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12011000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10920000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10174000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9236000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8954000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8855000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9298000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9444000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9709000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9783000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9798000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9977000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9474000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8656000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7977000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6973000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6673000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6318000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6051000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>4732000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5613,167 +5802,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>399000</v>
+      </c>
+      <c r="E81" s="3">
         <v>836000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1526000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1105000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1395000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1079000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>718000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>708000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>326000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-438000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-494000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-210000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>31000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>486000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>552000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>866000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>688000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1040000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>277000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>265000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>225000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>292000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5801,85 +5999,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>508000</v>
+      </c>
+      <c r="E83" s="3">
         <v>507000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>489000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>568000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>528000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>483000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>419000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>435000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>394000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>699000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>341000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>391000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>322000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>699000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>347000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>403000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>458000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>442000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>451000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>457000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>418000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>450000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>389000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>593000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>643000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5955,8 +6157,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6032,8 +6237,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6109,8 +6317,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6186,8 +6397,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6263,85 +6477,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>758000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1621000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1691000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2280000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1965000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2395000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1075000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1327000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1237000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>453000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-38000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>170000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>224000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1088000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>534000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-62000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1247000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1309000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1369000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1664000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1189000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1037000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>792000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1135000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>980000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6369,61 +6589,62 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4000</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-1000</v>
       </c>
       <c r="U91" s="3">
         <v>-1000</v>
@@ -6432,22 +6653,25 @@
         <v>-1000</v>
       </c>
       <c r="W91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="X91" s="3">
         <v>-2000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-688000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-329000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-494000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6523,8 +6747,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6600,85 +6827,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-851000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-816000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-714000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-733000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-398000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-465000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-368000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>169000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-407000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1026000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-546000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-278000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-658000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1167000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-546000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3546000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-502000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-478000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-492000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-367000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-251000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-342000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-361000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>4444000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-359000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6706,29 +6939,30 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-214000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-218000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-220000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-111000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-109000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-111000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -6736,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
-        <v>-73000</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>-73000</v>
@@ -6745,26 +6979,26 @@
         <v>-73000</v>
       </c>
       <c r="O96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-72000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-146000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-73000</v>
       </c>
       <c r="R96" s="3">
         <v>-73000</v>
       </c>
       <c r="S96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-72000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-73000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -6772,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="Y96" s="3">
         <v>-1000</v>
@@ -6781,10 +7015,13 @@
         <v>-1000</v>
       </c>
       <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+        <v>-1000</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6860,8 +7097,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6937,8 +7177,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7014,85 +7257,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-828000</v>
+      </c>
+      <c r="E100" s="3">
         <v>352000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-703000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1152000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-217000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-196000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>225000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-248000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>96000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>24000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>173000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-126000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-60000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1370000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1331000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3240000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-63000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-689000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1588000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-583000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-25000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-679000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2418000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7135,114 +7384,120 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-55000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>11000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>12000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>32000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>45000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-52000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>8000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-6000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-921000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1157000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>274000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>395000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1350000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1734000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>932000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1248000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>926000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-549000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-411000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-234000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-494000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1449000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-423000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>693000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>154000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-679000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-436000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>297000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>669000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-240000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>3155000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>756000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>FCX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,358 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="28" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="29" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5758000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5003000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5416000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6603000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6164000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6083000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5748000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4850000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4495000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3851000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5852000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2798000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3911000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3153000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7338000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3792000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3684000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4908000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5168000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4868000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5041000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4310000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3711000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3341000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4377000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3877000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4023000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3899000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3528000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3640000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3723000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3551000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3550000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3206000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3066000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2835000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5381000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3099000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3398000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3036000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6678000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3378000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3301000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3518000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3351000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3257000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6073000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6023000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7629000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4778000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3342000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3192000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1735000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1104000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1888000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2963000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2441000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2532000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2198000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1644000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1429000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1016000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>471000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-301000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>513000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>117000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>660000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>414000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>383000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1390000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1817000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1611000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-1032000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-1713000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-3918000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-1437000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1035000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>685000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,88 +1045,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E12" s="3">
         <v>38000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>19000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>15000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>27000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>16000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>25000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>58000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>27000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>33000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>27000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>24000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>21000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>33000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>27000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>19000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>14000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>18000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1193,20 +1209,23 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-20000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-8000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1220,61 +1239,64 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>93000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>263000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>65000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>21000</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>6000</v>
       </c>
       <c r="R14" s="3">
         <v>6000</v>
       </c>
       <c r="S14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="T14" s="3">
         <v>1000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-9000</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-13000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-11000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>4000</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>25000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1353,8 +1375,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1380,168 +1405,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4225000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4021000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3672000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3794000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3859000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3621000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3681000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3318000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2787000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3030000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6045000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3303000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3136000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3212000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6990000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3477000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3369000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3593000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3495000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3409000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3549000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3371000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3029000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2744000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3699000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3503000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1533000</v>
+      </c>
+      <c r="E18" s="3">
         <v>982000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1744000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2809000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2305000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2462000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2067000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1532000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1708000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>821000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-193000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-505000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>775000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>348000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>315000</v>
       </c>
       <c r="S18" s="3">
         <v>315000</v>
       </c>
       <c r="T18" s="3">
+        <v>315000</v>
+      </c>
+      <c r="U18" s="3">
         <v>1315000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1673000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1459000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1492000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>939000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>682000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>597000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>678000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>374000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1570,408 +1602,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E20" s="3">
         <v>25000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>11000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>31000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-161000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>36000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>9000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>11000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>22000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>40000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>20000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-190000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>33000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>19000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>13000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>14000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>20000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>28000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-7000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>8000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-5000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2188000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1515000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2262000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3329000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2712000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3026000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2559000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1962000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2140000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1237000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>546000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-144000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>976000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>296000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1066000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>676000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>731000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1787000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2135000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1938000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1950000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1348000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1125000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>994000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1266000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1007000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E22" s="3">
         <v>140000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>156000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>127000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>171000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>138000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>148000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>145000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>236000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>120000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>242000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>127000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>219000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>123000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>278000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>146000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>509000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>143000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>142000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>151000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>168000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>304000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>162000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>167000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>181000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>187000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1536000</v>
+      </c>
+      <c r="E23" s="3">
         <v>867000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1599000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2713000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1973000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2360000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1928000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1398000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1469000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>723000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-395000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-612000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>366000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-149000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>89000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>183000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-181000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1186000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1551000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1336000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1325000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>626000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>513000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>438000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>492000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>177000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>557000</v>
+      </c>
+      <c r="E24" s="3">
         <v>315000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>571000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>824000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>625000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>628000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>603000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>443000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>611000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>297000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>36000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-60000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>329000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>91000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>90000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>105000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-429000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>522000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>515000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>506000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>529000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>387000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>186000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>174000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>292000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-114000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2050,168 +2098,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>979000</v>
+      </c>
+      <c r="E26" s="3">
         <v>552000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1028000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1889000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1348000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1732000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1325000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>955000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>858000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>426000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-431000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-552000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>37000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-240000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>78000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>248000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>664000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1036000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>830000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>796000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>239000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>327000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>264000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>200000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>696000</v>
+      </c>
+      <c r="E27" s="3">
         <v>399000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>836000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1526000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1105000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1395000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1079000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>718000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>708000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>326000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-438000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-494000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-211000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-42000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>30000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>359000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>556000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>870000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>699000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>631000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>274000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>257000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>190000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>313000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2290,8 +2347,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2304,11 +2364,11 @@
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -2316,8 +2376,8 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2329,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P29" s="3">
         <v>1000</v>
@@ -2341,37 +2401,40 @@
         <v>1000</v>
       </c>
       <c r="S29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T29" s="3">
         <v>127000</v>
-      </c>
-      <c r="T29" s="3">
-        <v>-4000</v>
       </c>
       <c r="U29" s="3">
         <v>-4000</v>
       </c>
       <c r="V29" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="W29" s="3">
         <v>-11000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>409000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>3000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>8000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>35000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-21000</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2450,8 +2513,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2530,168 +2596,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-25000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-11000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-31000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>161000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-36000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-9000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-11000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-22000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-40000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-20000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>190000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-19000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-13000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-14000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-20000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-28000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>9000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>7000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-8000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>5000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>696000</v>
+      </c>
+      <c r="E33" s="3">
         <v>399000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>836000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1526000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1105000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1395000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1079000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>718000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>708000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>326000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-438000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-494000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-210000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-41000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>31000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>486000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>552000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>866000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>688000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1040000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>277000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>265000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>225000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>292000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2770,173 +2845,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>696000</v>
+      </c>
+      <c r="E35" s="3">
         <v>399000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>836000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1526000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1105000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1395000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1079000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>718000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>708000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>326000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-438000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-494000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-210000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-41000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>31000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>486000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>552000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>866000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>688000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1040000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>277000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>265000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>225000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>292000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2965,8 +3049,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2995,88 +3080,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8146000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8578000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9492000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8338000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8068000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7672000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6313000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4580000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3657000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2403000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1465000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1602000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2020000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2247000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2623000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2833000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4217000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4556000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3859000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3702000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4526000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4957000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4667000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4001000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4245000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1108000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3155,328 +3244,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1795000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1329000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1412000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1981000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1742000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1522000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1678000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1770000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1412000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1357000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1363000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1093000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1101000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>994000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>944000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1121000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1319000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1282000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1302000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1444000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1514000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1546000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1434000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1399000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1975000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5180000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4819000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4670000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4454000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4497000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4120000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4218000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4145000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3893000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3892000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3810000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3854000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4073000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4434000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4377000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4461000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4759000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4047000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4176000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3885000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4149000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3857000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3642000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3763000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3642000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3685000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>492000</v>
+      </c>
+      <c r="E45" s="3">
         <v>647000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>608000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>529000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>523000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>477000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>390000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>361000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>341000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>419000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>517000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>808000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>721000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>672000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>786000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>630000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>425000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1036000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1006000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1075000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>945000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>790000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>674000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>604000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>573000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15613000</v>
+      </c>
+      <c r="E46" s="3">
         <v>15373000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16182000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15302000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14830000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13791000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12599000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10856000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9303000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8071000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7155000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7357000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7915000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8347000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8730000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9045000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10720000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10921000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10343000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10106000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>10626000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>11150000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>10417000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>9767000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>10435000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>11505000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3555,88 +3659,94 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>32627000</v>
+      </c>
+      <c r="E48" s="3">
         <v>31814000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31200000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>30708000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>30345000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>30102000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29836000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29775000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29818000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29911000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29936000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>29899000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>29584000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29330000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>28841000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>28497000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>28010000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>23013000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>22923000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>22792000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>23002000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>22934000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>23115000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>23174000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>23293000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>26038000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3715,8 +3825,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3795,8 +3908,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3875,88 +3991,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2853000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2740000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2731000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2822000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2847000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3024000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3001000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3012000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3023000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3117000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3139000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2963000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3310000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3266000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3515000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3517000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3486000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3815000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3762000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3739000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3682000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3243000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3511000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3635000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3589000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>3857000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4035,88 +4157,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>51093000</v>
+      </c>
+      <c r="E54" s="3">
         <v>49927000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>50113000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>48832000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>48022000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>46917000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>45436000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>43643000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>42144000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>41099000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>40230000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>40219000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>40809000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>40943000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>41086000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>41059000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>42216000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>37749000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>37028000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>36637000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>37302000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>37327000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>37043000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>36576000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>37317000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>41400000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4145,8 +4273,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4175,381 +4304,394 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4027000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3947000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3853000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3163000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3495000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2949000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3106000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2866000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2670000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2533000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2471000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2374000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2532000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2686000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2645000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2553000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2608000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2383000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2420000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2208000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2441000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2098000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1880000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1780000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2393000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2347000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1037000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1032000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1038000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1365000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>372000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>897000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1057000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>656000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>34000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>47000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>90000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>245000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>4000</v>
       </c>
       <c r="Q58" s="3">
         <v>4000</v>
       </c>
       <c r="R58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="S58" s="3">
         <v>3000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>17000</v>
-      </c>
-      <c r="T58" s="3">
-        <v>4000</v>
       </c>
       <c r="U58" s="3">
         <v>4000</v>
       </c>
       <c r="V58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="W58" s="3">
         <v>483000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1414000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2215000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2216000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2228000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1232000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>802000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1281000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1020000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1041000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1926000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2025000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1677000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1364000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1089000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>713000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>516000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>345000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>524000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>672000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>691000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>637000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>691000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>704000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1464000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1375000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1653000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1382000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1204000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>848000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>834000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>640000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1339000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6345000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5999000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5932000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6454000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5892000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5523000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5527000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4611000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3417000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3096000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2906000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3143000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3209000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3381000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3286000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3247000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3329000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3851000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3799000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4344000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4914000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5517000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4944000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4842000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4265000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4488000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9583000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9658000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10054000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8256000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9078000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8768000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8638000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9153000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9677000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9983000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9824000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9829000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9821000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9915000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9912000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9902000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11124000</v>
-      </c>
-      <c r="T61" s="3">
-        <v>11123000</v>
       </c>
       <c r="U61" s="3">
         <v>11123000</v>
@@ -4558,105 +4700,111 @@
         <v>11123000</v>
       </c>
       <c r="W61" s="3">
+        <v>11123000</v>
+      </c>
+      <c r="X61" s="3">
         <v>11815000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>12567000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>13138000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>13135000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>14795000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>18180000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10294000</v>
+      </c>
+      <c r="E62" s="3">
         <v>10089000</v>
-      </c>
-      <c r="E62" s="3">
-        <v>10080000</v>
       </c>
       <c r="F62" s="3">
         <v>10080000</v>
       </c>
       <c r="G62" s="3">
+        <v>10080000</v>
+      </c>
+      <c r="H62" s="3">
         <v>10033000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10095000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10336000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10306000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10382000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10458000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10345000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10284000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10331000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10105000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10071000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10069000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9871000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9321000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9264000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9244000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9277000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9013000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>8968000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9012000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>9000000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>8892000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4735,8 +4883,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4815,8 +4966,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4895,88 +5049,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>35538000</v>
+      </c>
+      <c r="E66" s="3">
         <v>34973000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>35224000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>33966000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34042000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>33564000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>33425000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>32723000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31970000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31863000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31276000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31364000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31511000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31499000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>31377000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>31276000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>32418000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>27772000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>27554000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>27981000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>29325000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>30354000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>30370000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>30258000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>31266000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>36668000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5005,8 +5165,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5085,8 +5246,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5165,8 +5329,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5245,8 +5412,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5325,88 +5495,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3907000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4604000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5008000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5848000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7375000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8481000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9880000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10963000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11681000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12389000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12718000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12771000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12280000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12289000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12082000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12010000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12041000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12526000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-13161000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-14030000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-14722000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-15763000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-16043000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-16311000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-16540000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-16832000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5485,8 +5661,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5565,8 +5744,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5645,88 +5827,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15555000</v>
+      </c>
+      <c r="E76" s="3">
         <v>14954000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14889000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14866000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13980000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13353000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12011000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10920000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10174000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9236000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8954000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8855000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9298000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9444000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9709000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9783000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9798000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9977000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9474000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8656000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7977000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6973000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6673000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6318000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6051000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>4732000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5805,173 +5993,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>696000</v>
+      </c>
+      <c r="E81" s="3">
         <v>399000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>836000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1526000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1105000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1395000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1079000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>718000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>708000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>326000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-438000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-494000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-210000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-41000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>31000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>486000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>552000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>866000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>688000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1040000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>277000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>265000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>225000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>292000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6000,88 +6197,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>515000</v>
+      </c>
+      <c r="E83" s="3">
         <v>508000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>507000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>489000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>568000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>528000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>483000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>419000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>435000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>394000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>699000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>341000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>391000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>322000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>699000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>347000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>403000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>458000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>442000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>451000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>457000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>418000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>450000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>389000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>593000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>643000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6160,8 +6361,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6240,8 +6444,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6320,8 +6527,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6400,8 +6610,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6480,88 +6693,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1069000</v>
+      </c>
+      <c r="E89" s="3">
         <v>758000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1621000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1691000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2280000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1965000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2395000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1075000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1327000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1237000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>453000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-38000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>170000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>224000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1088000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>534000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-62000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1247000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1309000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1369000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1664000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1189000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1037000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>792000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1135000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>980000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6590,64 +6809,65 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4000</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-1000</v>
       </c>
       <c r="V91" s="3">
         <v>-1000</v>
@@ -6656,22 +6876,25 @@
         <v>-1000</v>
       </c>
       <c r="X91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-688000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-329000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-494000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6750,8 +6973,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6830,88 +7056,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1059000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-851000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-816000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-714000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-733000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-398000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-465000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-368000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>169000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-407000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1026000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-546000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-278000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-658000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1167000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-546000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3546000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-502000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-478000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-492000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-367000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-251000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-342000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-361000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>4444000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-359000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6940,8 +7172,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6949,23 +7182,23 @@
         <v>-214000</v>
       </c>
       <c r="E96" s="3">
+        <v>-214000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-218000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-220000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-111000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-109000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-111000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -6973,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
-        <v>-73000</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>-73000</v>
@@ -6982,26 +7215,26 @@
         <v>-73000</v>
       </c>
       <c r="P96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-72000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-146000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-73000</v>
       </c>
       <c r="S96" s="3">
         <v>-73000</v>
       </c>
       <c r="T96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-72000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-73000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -7009,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="Z96" s="3">
         <v>-1000</v>
@@ -7018,10 +7251,13 @@
         <v>-1000</v>
       </c>
       <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+        <v>-1000</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7100,8 +7336,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7180,8 +7419,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7260,88 +7502,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-444000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-828000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>352000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-703000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1152000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-217000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-196000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>225000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-248000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>96000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>24000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>173000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-126000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1370000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1331000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3240000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-63000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-689000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1588000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-583000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-25000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-679000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2418000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7387,117 +7635,123 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-55000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>11000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>12000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>32000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>45000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-52000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>8000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-6000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-434000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-921000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1157000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>274000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>395000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1350000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1734000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>932000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1248000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>926000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-549000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-411000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-234000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-494000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1449000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-423000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>693000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>154000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-679000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-436000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>297000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>669000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-240000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>3155000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>756000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>FCX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,358 +665,371 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="29" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="30" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5389000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5758000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5003000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5416000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6603000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6164000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6083000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5748000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4850000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4495000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3851000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5852000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2798000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3911000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3153000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7338000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3792000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3684000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4908000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5168000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4868000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5041000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4310000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3711000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3341000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4377000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3877000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3564000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4023000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3899000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3528000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3640000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3723000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3551000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3550000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3206000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3066000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2835000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5381000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3099000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3398000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3036000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6678000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3378000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3301000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3518000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3351000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3257000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6073000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6023000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>7629000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4778000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3342000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3192000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1825000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1735000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1104000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1888000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2963000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2441000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2532000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2198000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1644000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1429000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1016000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>471000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-301000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>513000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>117000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>660000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>414000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>383000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1390000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1817000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1611000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-1032000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-1713000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-3918000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>-1437000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1035000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>685000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,91 +1059,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E12" s="3">
         <v>28000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>38000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>24000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>19000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>15000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>27000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>16000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>25000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>58000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>27000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>33000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>27000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>24000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>21000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>33000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>27000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>19000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>14000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>18000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1212,23 +1229,26 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
         <v>-3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-20000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-8000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1242,61 +1262,64 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>93000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>263000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>65000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>21000</v>
-      </c>
-      <c r="R14" s="3">
-        <v>6000</v>
       </c>
       <c r="S14" s="3">
         <v>6000</v>
       </c>
       <c r="T14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-9000</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-11000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>4000</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>25000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1378,8 +1401,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1406,174 +1432,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3788000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4225000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4021000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3672000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3794000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3859000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3621000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3681000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3318000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2787000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3030000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6045000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3303000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3136000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3212000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6990000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3477000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3369000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3593000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3495000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3409000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3549000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3371000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3029000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2744000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3699000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3503000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1601000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1533000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>982000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1744000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2809000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2305000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2462000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2067000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1532000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1708000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>821000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-193000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-505000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>775000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-59000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>348000</v>
-      </c>
-      <c r="S18" s="3">
-        <v>315000</v>
       </c>
       <c r="T18" s="3">
         <v>315000</v>
       </c>
       <c r="U18" s="3">
+        <v>315000</v>
+      </c>
+      <c r="V18" s="3">
         <v>1315000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1673000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1459000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1492000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>939000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>682000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>597000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>678000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>374000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1603,423 +1636,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E20" s="3">
         <v>140000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>25000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>11000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>31000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-161000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>36000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>22000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>40000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>20000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-190000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>33000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>19000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>14000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>13000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>14000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>20000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>28000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-9000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-7000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>8000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-5000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2088000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2188000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1515000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2262000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3329000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2712000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3026000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2559000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1962000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2140000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1237000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>546000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-144000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>976000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>296000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1066000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>676000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>731000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1787000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2135000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1938000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1950000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1348000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1125000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>994000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1266000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1007000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E22" s="3">
         <v>137000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>140000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>156000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>127000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>171000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>138000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>148000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>145000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>236000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>120000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>242000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>127000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>219000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>123000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>278000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>146000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>509000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>143000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>142000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>151000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>168000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>304000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>162000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>167000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>181000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>187000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1538000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1536000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>867000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1599000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2713000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1973000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2360000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1928000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1398000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1469000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>723000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-395000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-612000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>366000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-149000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>89000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>183000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-181000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1186000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1551000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1336000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1325000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>626000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>513000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>438000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>492000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>177000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>499000</v>
+      </c>
+      <c r="E24" s="3">
         <v>557000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>315000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>571000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>824000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>625000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>628000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>603000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>443000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>611000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>297000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>36000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-60000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>329000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>91000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>90000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>105000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-429000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>522000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>515000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>506000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>529000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>387000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>186000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>174000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>292000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-114000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2101,174 +2150,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1039000</v>
+      </c>
+      <c r="E26" s="3">
         <v>979000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>552000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1028000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1889000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1348000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1732000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1325000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>955000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>858000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>426000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-431000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-552000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>37000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-240000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>78000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>248000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>664000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1036000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>830000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>796000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>239000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>327000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>264000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>200000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>658000</v>
+      </c>
+      <c r="E27" s="3">
         <v>696000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>399000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>836000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1526000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1105000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1395000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1079000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>718000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>708000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>326000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-438000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-494000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-211000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-42000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>30000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>359000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>556000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>870000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>699000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>631000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>274000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>257000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>190000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>313000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2350,37 +2408,40 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2392,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="3">
         <v>1000</v>
@@ -2404,37 +2465,40 @@
         <v>1000</v>
       </c>
       <c r="T29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U29" s="3">
         <v>127000</v>
-      </c>
-      <c r="U29" s="3">
-        <v>-4000</v>
       </c>
       <c r="V29" s="3">
         <v>-4000</v>
       </c>
       <c r="W29" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="X29" s="3">
         <v>-11000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>409000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>3000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>8000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>35000</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-21000</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2516,8 +2580,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2599,174 +2666,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-140000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-25000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-11000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-31000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>161000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-36000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-22000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-40000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-20000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>190000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-33000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-19000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-14000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-13000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-14000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-20000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-28000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>9000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>7000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-8000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>5000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>658000</v>
+      </c>
+      <c r="E33" s="3">
         <v>696000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>399000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>836000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1526000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1105000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1395000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1079000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>718000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>708000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>326000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-438000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-494000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-210000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-41000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>31000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>486000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>552000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>866000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>688000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1040000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>277000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>265000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>225000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>292000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2848,179 +2924,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>658000</v>
+      </c>
+      <c r="E35" s="3">
         <v>696000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>399000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>836000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1526000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1105000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1395000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1079000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>718000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>708000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>326000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-438000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-494000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-210000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-41000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>31000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>486000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>552000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>866000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>688000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1040000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>277000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>265000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>225000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>292000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3050,8 +3135,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3081,91 +3167,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6852000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8146000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8578000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9492000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8338000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8068000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7672000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6313000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4580000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3657000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2403000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1465000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1602000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2020000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2247000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2623000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2833000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4217000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4556000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3859000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3702000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4526000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4957000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4667000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4001000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4245000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1108000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3247,340 +3337,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1684000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1795000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1329000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1412000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1981000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1742000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1522000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1678000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1770000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1412000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1357000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1363000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1093000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1101000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>994000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>944000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1121000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1319000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1282000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1302000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1444000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1514000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1546000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1434000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1399000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1975000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5737000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5180000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4819000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4670000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4454000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4497000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4120000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4218000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4145000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3893000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3892000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3810000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3854000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4073000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4434000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4377000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4461000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4759000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4047000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4176000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3885000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4149000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3857000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3642000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3763000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3642000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3685000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>473000</v>
+      </c>
+      <c r="E45" s="3">
         <v>492000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>647000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>608000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>529000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>523000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>477000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>390000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>361000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>341000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>419000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>517000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>808000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>721000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>672000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>786000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>630000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>425000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1036000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1006000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1075000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>945000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>790000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>674000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>604000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>573000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14746000</v>
+      </c>
+      <c r="E46" s="3">
         <v>15613000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15373000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16182000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15302000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14830000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13791000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12599000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10856000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9303000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8071000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7155000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7357000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7915000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8347000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8730000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9045000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10720000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10921000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10343000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>10106000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>10626000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>11150000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>10417000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>9767000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>10435000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>11505000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3662,91 +3767,97 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>33159000</v>
+      </c>
+      <c r="E48" s="3">
         <v>32627000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31814000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>31200000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>30708000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>30345000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>30102000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29836000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29775000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29818000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29911000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>29936000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>29899000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29584000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>29330000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>28841000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>28497000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>28010000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>23013000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>22923000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>22792000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>23002000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>22934000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>23115000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>23174000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>23293000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>26038000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3828,8 +3939,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3911,8 +4025,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3994,91 +4111,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3004000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2853000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2740000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2731000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2822000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2847000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3024000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3001000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3012000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3023000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3117000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3139000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2963000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3310000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3266000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3515000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3517000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3486000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3815000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3762000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3739000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3682000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3243000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3511000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3635000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>3589000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>3857000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4160,91 +4283,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>50909000</v>
+      </c>
+      <c r="E54" s="3">
         <v>51093000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>49927000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>50113000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>48832000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>48022000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>46917000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>45436000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43643000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42144000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>41099000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>40230000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>40219000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>40809000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>40943000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>41086000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>41059000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>42216000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>37749000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>37028000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>36637000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>37302000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>37327000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>37043000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>36576000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>37317000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>41400000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4274,8 +4403,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4305,396 +4435,409 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4027000</v>
+        <v>3836000</v>
       </c>
       <c r="E57" s="3">
+        <v>3989000</v>
+      </c>
+      <c r="F57" s="3">
         <v>3947000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3853000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3163000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3495000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2949000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3106000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2866000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2670000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2533000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2471000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2374000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2532000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2686000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2645000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2553000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2608000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2383000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2420000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2208000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2441000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2098000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1880000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1780000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2393000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2347000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1037000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1032000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1038000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1365000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>372000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>897000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1057000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>656000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>34000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>47000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>90000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>245000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>4000</v>
       </c>
       <c r="R58" s="3">
         <v>4000</v>
       </c>
       <c r="S58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T58" s="3">
         <v>3000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>17000</v>
-      </c>
-      <c r="U58" s="3">
-        <v>4000</v>
       </c>
       <c r="V58" s="3">
         <v>4000</v>
       </c>
       <c r="W58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="X58" s="3">
         <v>483000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1414000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2215000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2216000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2228000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1232000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>802000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1281000</v>
+        <v>1396000</v>
       </c>
       <c r="E59" s="3">
+        <v>1319000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1020000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1041000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1926000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2025000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1677000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1364000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1089000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>713000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>516000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>345000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>524000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>672000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>691000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>637000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>691000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>704000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1464000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1375000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1653000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1382000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1204000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>848000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>834000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>640000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1339000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5281000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6345000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5999000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5932000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6454000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5892000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5523000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5527000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4611000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3417000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3096000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2906000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3143000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3209000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3381000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3286000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3247000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3329000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3851000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3799000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4344000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4914000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5517000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4944000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4842000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4265000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4488000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9586000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9583000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9658000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10054000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8256000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9078000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8768000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8638000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9153000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9677000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9983000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9824000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9829000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9821000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9915000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9912000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9902000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11124000</v>
-      </c>
-      <c r="U61" s="3">
-        <v>11123000</v>
       </c>
       <c r="V61" s="3">
         <v>11123000</v>
@@ -4703,108 +4846,114 @@
         <v>11123000</v>
       </c>
       <c r="X61" s="3">
+        <v>11123000</v>
+      </c>
+      <c r="Y61" s="3">
         <v>11815000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>12567000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>13138000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>13135000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>14795000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>18180000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10394000</v>
+      </c>
+      <c r="E62" s="3">
         <v>10294000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10089000</v>
-      </c>
-      <c r="F62" s="3">
-        <v>10080000</v>
       </c>
       <c r="G62" s="3">
         <v>10080000</v>
       </c>
       <c r="H62" s="3">
+        <v>10080000</v>
+      </c>
+      <c r="I62" s="3">
         <v>10033000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10095000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10336000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10306000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10382000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10458000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10345000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10284000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10331000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10105000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10071000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10069000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9871000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9321000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9264000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9244000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9277000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9013000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>8968000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>9012000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>9000000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>8892000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4886,8 +5035,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4969,8 +5121,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5052,91 +5207,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>34852000</v>
+      </c>
+      <c r="E66" s="3">
         <v>35538000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>34973000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>35224000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>33966000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>34042000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>33564000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>33425000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32723000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31970000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31863000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31276000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31364000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31511000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>31499000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>31377000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>31276000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>32418000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>27772000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>27554000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>27981000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>29325000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>30354000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>30370000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>30258000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>31266000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>36668000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5166,8 +5327,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5249,8 +5411,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5332,8 +5497,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5415,8 +5583,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5498,91 +5669,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3244000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3907000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4604000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5008000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5848000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7375000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8481000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9880000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10963000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11681000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12389000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12718000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12771000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12280000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12289000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12082000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12010000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12041000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12526000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-13161000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-14030000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-14722000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-15763000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-16043000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-16311000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-16540000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-16832000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5664,8 +5841,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5747,8 +5927,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5830,91 +6013,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16057000</v>
+      </c>
+      <c r="E76" s="3">
         <v>15555000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14954000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14889000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14866000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13980000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13353000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12011000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10920000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10174000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9236000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8954000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8855000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9298000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9444000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9709000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9783000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9798000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9977000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9474000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8656000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7977000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6973000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6673000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6318000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>6051000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>4732000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5996,179 +6185,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>658000</v>
+      </c>
+      <c r="E81" s="3">
         <v>696000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>399000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>836000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1526000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1105000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1395000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1079000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>718000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>708000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>326000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-438000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-494000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-210000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-41000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>31000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>486000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>552000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>866000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>688000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1040000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>277000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>265000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>225000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>292000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6198,91 +6396,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>399000</v>
+      </c>
+      <c r="E83" s="3">
         <v>515000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>508000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>507000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>489000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>568000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>528000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>483000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>419000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>435000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>394000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>699000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>341000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>391000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>322000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>699000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>347000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>403000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>458000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>442000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>451000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>457000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>418000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>450000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>389000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>593000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>643000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6364,8 +6566,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6447,8 +6652,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6530,8 +6738,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6613,8 +6824,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6696,91 +6910,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1069000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>758000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1621000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1691000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2280000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1965000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2395000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1075000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1327000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1237000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>453000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-38000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>170000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>224000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1088000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>534000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-62000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1247000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1309000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1369000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1664000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1189000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1037000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>792000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1135000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>980000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6810,67 +7030,68 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17000</v>
+        <v>-1077000</v>
       </c>
       <c r="E91" s="3">
+        <v>-1001000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-802000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-816000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-696000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-823000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-523000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="P91" s="3">
         <v>-7000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="Q91" s="3">
         <v>-8000</v>
       </c>
-      <c r="G91" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="R91" s="3">
         <v>-5000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="S91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="U91" s="3">
         <v>-3000</v>
       </c>
-      <c r="N91" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="V91" s="3">
         <v>-4000</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-1000</v>
       </c>
       <c r="W91" s="3">
         <v>-1000</v>
@@ -6879,22 +7100,25 @@
         <v>-1000</v>
       </c>
       <c r="Y91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-688000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-329000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-494000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6976,8 +7200,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7059,91 +7286,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1164000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1059000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-851000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-816000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-714000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-733000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-398000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-465000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-368000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>169000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-407000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1026000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-546000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-278000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-658000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1167000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-546000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3546000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-502000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-478000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-492000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-367000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-251000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-342000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-361000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>4444000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-359000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7173,35 +7406,36 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-214000</v>
+        <v>-217000</v>
       </c>
       <c r="E96" s="3">
         <v>-214000</v>
       </c>
       <c r="F96" s="3">
+        <v>-214000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-218000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-220000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-111000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-109000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-111000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -7209,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
-        <v>-73000</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-73000</v>
@@ -7218,26 +7452,26 @@
         <v>-73000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-72000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-146000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-73000</v>
       </c>
       <c r="T96" s="3">
         <v>-73000</v>
       </c>
       <c r="U96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-72000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-73000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
@@ -7245,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="AA96" s="3">
         <v>-1000</v>
@@ -7254,10 +7488,13 @@
         <v>-1000</v>
       </c>
       <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+        <v>-1000</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7339,8 +7576,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7422,8 +7662,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7505,91 +7748,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1172000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-444000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-828000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>352000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-703000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1152000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-217000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-196000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>225000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-248000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>96000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>24000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>173000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-126000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-60000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1370000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1331000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3240000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-63000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-689000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1588000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-583000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-25000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-679000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2418000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7638,120 +7887,126 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-55000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>11000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>12000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>32000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>45000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-52000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>8000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-6000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1286000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-434000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-921000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1157000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>274000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>395000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1350000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1734000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>932000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1248000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>926000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-549000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-411000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-234000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-494000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1449000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-423000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>693000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>154000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-679000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-436000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>297000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>669000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-240000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>3155000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>756000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>FCX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="30" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="31" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5737000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5389000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5758000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5003000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5416000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6603000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6164000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6083000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5748000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4850000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4495000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3851000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5852000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2798000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3911000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3153000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7338000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3792000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3684000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4908000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5168000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4868000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5041000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4310000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3711000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3341000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4377000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>3877000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4096000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3564000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4023000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3899000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3528000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3640000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3723000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3551000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3550000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3206000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3066000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2835000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5381000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3099000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3398000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3036000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6678000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3378000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3301000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3518000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3351000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3257000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6073000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6023000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>7629000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4778000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3342000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>3192000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1641000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1825000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1735000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1104000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1888000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2963000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2441000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2532000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2198000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1644000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1429000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1016000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>471000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-301000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>513000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>117000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>660000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>414000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>383000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1390000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1817000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1611000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-1032000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-1713000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>-3918000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>-1437000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1035000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>685000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,94 +1073,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E12" s="3">
         <v>31000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>28000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>38000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>19000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>15000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>27000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>16000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>21000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>25000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>58000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>27000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>33000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>27000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>24000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>21000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>33000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>27000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>19000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>14000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>18000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1232,26 +1249,29 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>-5000</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-20000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-8000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1265,61 +1285,64 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>93000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>263000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>65000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>21000</v>
-      </c>
-      <c r="S14" s="3">
-        <v>6000</v>
       </c>
       <c r="T14" s="3">
         <v>6000</v>
       </c>
       <c r="U14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="V14" s="3">
         <v>1000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-9000</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-13000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-11000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>4000</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>25000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1404,8 +1427,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1433,180 +1459,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4322000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3788000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4225000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4021000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3672000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3794000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3859000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3621000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3681000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3318000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2787000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3030000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6045000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3303000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3136000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3212000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6990000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3477000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3369000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3593000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3495000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3409000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3549000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3371000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3029000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2744000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3699000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3503000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1415000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1601000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1533000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>982000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1744000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2809000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2305000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2462000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2067000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1532000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1708000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>821000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-193000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-505000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>775000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-59000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>348000</v>
-      </c>
-      <c r="T18" s="3">
-        <v>315000</v>
       </c>
       <c r="U18" s="3">
         <v>315000</v>
       </c>
       <c r="V18" s="3">
+        <v>315000</v>
+      </c>
+      <c r="W18" s="3">
         <v>1315000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1673000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1459000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1492000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>939000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>682000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>597000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>678000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>374000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1637,438 +1670,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E20" s="3">
         <v>88000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>140000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>25000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>11000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>31000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-161000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>36000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>22000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>40000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>20000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-190000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>33000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>19000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>14000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>13000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>14000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>20000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>28000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-9000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-7000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>8000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-5000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1986000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2088000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2188000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1515000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2262000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3329000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2712000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3026000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2559000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1962000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2140000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1237000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>546000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-144000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>976000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>296000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1066000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>676000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>731000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1787000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2135000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1938000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1950000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1348000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1125000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>994000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1266000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1007000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E22" s="3">
         <v>151000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>137000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>140000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>156000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>127000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>171000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>138000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>148000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>145000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>236000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>120000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>242000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>127000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>219000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>123000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>278000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>146000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>509000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>143000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>142000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>151000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>168000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>304000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>162000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>167000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>181000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>187000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1268000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1538000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1536000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>867000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1599000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2713000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1973000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2360000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1928000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1398000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1469000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>723000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-395000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-612000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>366000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-149000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>89000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>183000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-181000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1186000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1551000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1336000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1325000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>626000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>513000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>438000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>492000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>177000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>539000</v>
+      </c>
+      <c r="E24" s="3">
         <v>499000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>557000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>315000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>571000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>824000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>625000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>628000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>603000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>443000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>611000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>297000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>329000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>91000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>90000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>105000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-429000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>522000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>515000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>506000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>529000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>387000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>186000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>174000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>292000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-114000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2153,180 +2202,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>729000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1039000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>979000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>552000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1028000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1889000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1348000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1732000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1325000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>955000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>858000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>426000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-431000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-552000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>37000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-240000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>78000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>248000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>664000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1036000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>830000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>796000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>239000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>327000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>264000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>200000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>658000</v>
+        <v>338000</v>
       </c>
       <c r="E27" s="3">
+        <v>663000</v>
+      </c>
+      <c r="F27" s="3">
         <v>696000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>399000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>836000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1526000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1105000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1395000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1079000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>718000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>708000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>326000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-438000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-494000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-211000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-42000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>30000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>359000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>556000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>870000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>699000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>631000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>274000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>257000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>190000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>313000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2411,8 +2469,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2437,14 +2498,14 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2456,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R29" s="3">
         <v>1000</v>
@@ -2468,37 +2529,40 @@
         <v>1000</v>
       </c>
       <c r="U29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V29" s="3">
         <v>127000</v>
-      </c>
-      <c r="V29" s="3">
-        <v>-4000</v>
       </c>
       <c r="W29" s="3">
         <v>-4000</v>
       </c>
       <c r="X29" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-11000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>409000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>3000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>8000</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>35000</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-21000</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2583,8 +2647,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2669,180 +2736,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-88000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-140000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-25000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-11000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-31000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>161000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-36000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-22000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-40000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>190000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-33000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-19000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-14000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-13000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-14000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-20000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-28000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>9000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>7000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-8000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>5000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>658000</v>
+        <v>338000</v>
       </c>
       <c r="E33" s="3">
+        <v>663000</v>
+      </c>
+      <c r="F33" s="3">
         <v>696000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>399000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>836000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1526000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1105000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1395000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1079000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>718000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>708000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>326000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-438000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-494000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-210000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-41000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>31000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>486000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>552000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>866000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>688000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1040000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>277000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>265000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>225000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>292000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2927,185 +3003,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>658000</v>
+        <v>338000</v>
       </c>
       <c r="E35" s="3">
+        <v>663000</v>
+      </c>
+      <c r="F35" s="3">
         <v>696000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>399000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>836000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1526000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1105000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1395000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1079000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>718000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>708000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>326000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-438000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-494000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-210000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-41000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>31000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>486000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>552000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>866000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>688000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1040000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>277000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>265000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>225000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>292000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3136,8 +3221,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3168,94 +3254,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6683000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6852000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8146000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8578000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9492000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8338000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8068000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7672000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6313000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4580000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3657000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2403000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1465000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1602000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2020000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2247000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2623000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2833000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4217000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4556000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3859000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3702000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4526000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4957000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4667000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4001000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4245000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1108000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3340,352 +3430,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1092000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1684000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1795000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1329000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1412000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1981000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1742000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1522000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1678000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1770000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1412000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1357000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1363000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1093000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1101000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>994000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>944000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1121000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1319000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1282000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1302000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1444000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1514000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1546000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1434000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1399000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1975000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5810000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5737000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5180000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4819000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4670000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4454000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4497000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4120000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4218000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4145000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3893000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3892000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3810000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3854000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4073000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4434000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4377000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4461000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4759000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4047000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4176000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3885000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4149000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3857000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3642000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3763000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3642000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>3685000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>472000</v>
+      </c>
+      <c r="E45" s="3">
         <v>473000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>492000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>647000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>608000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>529000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>523000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>477000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>390000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>361000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>341000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>419000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>517000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>808000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>721000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>672000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>786000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>630000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>425000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1036000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1006000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1075000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>945000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>790000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>674000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>604000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>573000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14057000</v>
+      </c>
+      <c r="E46" s="3">
         <v>14746000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15613000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15373000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16182000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15302000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>14830000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13791000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12599000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10856000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9303000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8071000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7155000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7357000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7915000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8347000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8730000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9045000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10720000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10921000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>10343000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>10106000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>10626000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>11150000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>10417000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>9767000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>10435000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>11505000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3770,94 +3875,100 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>33845000</v>
+      </c>
+      <c r="E48" s="3">
         <v>33159000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>32627000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>31814000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>31200000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>30708000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>30345000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>30102000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29836000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29775000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29818000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>29911000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>29936000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29899000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>29584000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>29330000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>28841000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>28497000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>28010000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>23013000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>22923000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>22792000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>23002000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>22934000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>23115000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>23174000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>23293000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>26038000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3942,8 +4053,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4028,8 +4142,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4114,94 +4231,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3005000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3004000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2853000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2740000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2731000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2822000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2847000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3024000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3001000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3012000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3023000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3117000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3139000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2963000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3310000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3266000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3515000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3517000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3486000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3815000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3762000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3739000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3682000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3243000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3511000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>3635000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>3589000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>3857000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4286,94 +4409,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>50907000</v>
+      </c>
+      <c r="E54" s="3">
         <v>50909000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>51093000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>49927000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>50113000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>48832000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>48022000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>46917000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45436000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>43643000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42144000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>41099000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>40230000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>40219000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>40809000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>40943000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>41086000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>41059000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>42216000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>37749000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>37028000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>36637000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>37302000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>37327000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>37043000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>36576000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>37317000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>41400000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4404,8 +4533,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4436,411 +4566,424 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3642000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3836000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3989000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3947000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3853000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3163000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3495000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2949000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3106000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2866000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2670000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2533000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2471000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2374000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2532000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2686000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2645000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2553000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2608000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2383000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2420000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2208000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2441000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2098000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1880000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1780000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2393000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>2347000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E58" s="3">
         <v>49000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1037000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1032000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1038000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1365000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>372000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>897000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1057000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>656000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>34000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>47000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>90000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>245000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>4000</v>
       </c>
       <c r="S58" s="3">
         <v>4000</v>
       </c>
       <c r="T58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="U58" s="3">
         <v>3000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>17000</v>
-      </c>
-      <c r="V58" s="3">
-        <v>4000</v>
       </c>
       <c r="W58" s="3">
         <v>4000</v>
       </c>
       <c r="X58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Y58" s="3">
         <v>483000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1414000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2215000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2216000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2228000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1232000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>802000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1109000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1396000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1319000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1020000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1041000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1926000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2025000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1677000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1364000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1089000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>713000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>516000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>345000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>524000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>672000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>691000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>637000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>691000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>704000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1464000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1375000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1653000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1382000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1204000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>848000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>834000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>640000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1339000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4788000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5281000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6345000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5999000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5932000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6454000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5892000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5523000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5527000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4611000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3417000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3096000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2906000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3143000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3209000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3381000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3286000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3247000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3329000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3851000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3799000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4344000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4914000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5517000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4944000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4842000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4265000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>4488000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9458000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9586000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9583000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9658000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>10054000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8256000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9078000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8768000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8638000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9153000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9677000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9983000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9824000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9829000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9821000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9915000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9912000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9902000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>11124000</v>
-      </c>
-      <c r="V61" s="3">
-        <v>11123000</v>
       </c>
       <c r="W61" s="3">
         <v>11123000</v>
@@ -4849,111 +4992,117 @@
         <v>11123000</v>
       </c>
       <c r="Y61" s="3">
+        <v>11123000</v>
+      </c>
+      <c r="Z61" s="3">
         <v>11815000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>12567000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>13138000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>13135000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>14795000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>18180000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10634000</v>
+      </c>
+      <c r="E62" s="3">
         <v>10394000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10294000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10089000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>10080000</v>
       </c>
       <c r="H62" s="3">
         <v>10080000</v>
       </c>
       <c r="I62" s="3">
+        <v>10080000</v>
+      </c>
+      <c r="J62" s="3">
         <v>10033000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10095000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10336000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10306000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10382000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10458000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10345000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10284000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10331000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10105000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10071000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>10069000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9871000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9321000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9264000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9244000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9277000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9013000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>8968000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>9012000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>9000000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>8892000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5038,8 +5187,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5124,8 +5276,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5210,94 +5365,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>34705000</v>
+      </c>
+      <c r="E66" s="3">
         <v>34852000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>35538000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>34973000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>35224000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>33966000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>34042000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>33564000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33425000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32723000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31970000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31863000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31276000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31364000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>31511000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>31499000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>31377000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>31276000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>32418000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>27772000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>27554000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>27981000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>29325000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>30354000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>30370000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>30258000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>31266000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>36668000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5328,8 +5489,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5414,8 +5576,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5500,8 +5665,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5586,8 +5754,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5672,94 +5843,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2901000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3244000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3907000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4604000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5008000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5848000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7375000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8481000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9880000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10963000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11681000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12389000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12718000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12771000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12280000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12289000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12082000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12010000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12041000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-12526000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-13161000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-14030000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-14722000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-15763000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-16043000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-16311000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-16540000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-16832000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5844,8 +6021,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5930,8 +6110,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6016,94 +6199,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16202000</v>
+      </c>
+      <c r="E76" s="3">
         <v>16057000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15555000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14954000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14889000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14866000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13980000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13353000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12011000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10920000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10174000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9236000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8954000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8855000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9298000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9444000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9709000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9783000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9798000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9977000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9474000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>8656000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7977000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6973000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6673000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>6318000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>6051000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>4732000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6188,185 +6377,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>658000</v>
+        <v>338000</v>
       </c>
       <c r="E81" s="3">
+        <v>663000</v>
+      </c>
+      <c r="F81" s="3">
         <v>696000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>399000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>836000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1526000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1105000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1395000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1079000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>718000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>708000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>326000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-438000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-494000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-210000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-41000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>31000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>486000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>552000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>866000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>688000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1040000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>277000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>265000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>225000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>292000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6397,94 +6595,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>547000</v>
+      </c>
+      <c r="E83" s="3">
         <v>399000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>515000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>508000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>507000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>489000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>568000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>528000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>483000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>419000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>435000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>394000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>699000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>341000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>391000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>322000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>699000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>347000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>403000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>458000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>442000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>451000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>457000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>418000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>450000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>389000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>593000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>643000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6569,8 +6771,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6655,8 +6860,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6741,8 +6949,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6827,8 +7038,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6913,94 +7127,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1673000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1050000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1069000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>758000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1621000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1691000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2280000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1965000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2395000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1075000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1327000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1237000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>453000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>170000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>224000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1088000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>534000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-62000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1247000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1309000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1369000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1664000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1189000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1037000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>792000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1135000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>980000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7031,70 +7251,71 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1119000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1077000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1001000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-802000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-816000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-696000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-823000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-523000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4000</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-1000</v>
       </c>
       <c r="X91" s="3">
         <v>-1000</v>
@@ -7103,22 +7324,25 @@
         <v>-1000</v>
       </c>
       <c r="Z91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-688000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-329000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-494000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7203,8 +7427,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7289,94 +7516,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1201000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1164000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1059000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-851000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-816000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-714000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-733000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-398000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-465000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-368000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>169000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-407000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1026000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-546000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-278000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-658000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1167000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-546000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3546000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-502000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-478000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-492000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-367000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-251000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-342000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-361000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>4444000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-359000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7407,38 +7640,39 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-215000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-217000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-214000</v>
       </c>
       <c r="F96" s="3">
         <v>-214000</v>
       </c>
       <c r="G96" s="3">
+        <v>-214000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-218000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-220000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-111000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-109000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-111000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -7446,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
-        <v>-73000</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-73000</v>
@@ -7455,26 +7689,26 @@
         <v>-73000</v>
       </c>
       <c r="R96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-72000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-146000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-73000</v>
       </c>
       <c r="U96" s="3">
         <v>-73000</v>
       </c>
       <c r="V96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-72000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-73000</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
@@ -7482,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="AA96" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="AB96" s="3">
         <v>-1000</v>
@@ -7491,10 +7725,13 @@
         <v>-1000</v>
       </c>
       <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+        <v>-1000</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7579,8 +7816,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7665,8 +7905,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7751,94 +7994,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-640000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1172000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-444000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-828000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>352000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-703000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1152000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-217000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-196000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>225000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-248000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>96000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>24000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>173000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-126000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-60000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1370000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1331000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3240000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-63000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-689000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1588000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-583000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-25000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-679000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-2418000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7890,123 +8139,129 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-55000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>11000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>12000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>32000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>45000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-52000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>8000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-6000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-168000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1286000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-434000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-921000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1157000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>274000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>395000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1350000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1734000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>932000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1248000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>926000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-549000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-411000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-234000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-494000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1449000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-423000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>693000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>154000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-679000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-436000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>297000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>669000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-240000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>3155000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>756000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FCX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="31" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="32" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5824000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5737000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5389000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5758000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5003000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5416000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6603000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6164000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6083000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5748000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4850000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4495000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3851000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5852000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2798000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3911000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3153000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7338000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3792000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3684000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4908000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5168000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4868000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5041000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4310000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3711000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3341000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>4377000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>3877000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4086000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4096000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3564000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4023000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3899000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3528000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3640000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3723000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3551000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3550000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3206000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3066000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2835000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5381000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3099000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3398000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3036000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6678000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3378000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3301000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3518000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3351000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3257000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6073000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>6023000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>7629000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>4778000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>3342000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>3192000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1738000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1641000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1825000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1735000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1104000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1888000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2963000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2441000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2532000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2198000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1644000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1429000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1016000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>471000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-301000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>513000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>117000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>660000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>414000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>383000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1390000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1817000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1611000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-1032000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>-1713000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>-3918000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>-1437000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1035000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>685000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,97 +1087,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E12" s="3">
         <v>42000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>31000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>28000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>38000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>19000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>27000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>16000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>21000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>25000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>58000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>27000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>33000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>27000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>24000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>21000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>33000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>27000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>19000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>14000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>18000</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1252,29 +1269,32 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-5000</v>
+        <v>10000</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="F14" s="3">
+        <v>11000</v>
+      </c>
+      <c r="G14" s="3">
         <v>-3000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-20000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-8000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1288,61 +1308,64 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>93000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>263000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>65000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>21000</v>
-      </c>
-      <c r="T14" s="3">
-        <v>6000</v>
       </c>
       <c r="U14" s="3">
         <v>6000</v>
       </c>
       <c r="V14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="W14" s="3">
         <v>1000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-13000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-11000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>4000</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
       <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>25000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1430,8 +1453,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1460,186 +1486,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4327000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4322000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3788000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4225000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4021000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3672000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3794000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3859000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3621000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3681000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3318000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2787000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3030000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6045000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3303000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3136000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3212000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6990000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3477000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3369000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3593000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3495000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3409000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3549000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3371000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3029000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2744000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3699000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>3503000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1497000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1415000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1601000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1533000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>982000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1744000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2809000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2305000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2462000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2067000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1532000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1708000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>821000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-193000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-505000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>775000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-59000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>348000</v>
-      </c>
-      <c r="U18" s="3">
-        <v>315000</v>
       </c>
       <c r="V18" s="3">
         <v>315000</v>
       </c>
       <c r="W18" s="3">
+        <v>315000</v>
+      </c>
+      <c r="X18" s="3">
         <v>1315000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1673000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1459000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1492000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>939000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>682000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>597000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>678000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>374000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1671,453 +1704,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E20" s="3">
         <v>24000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>88000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>140000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>25000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>11000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>31000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-161000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>36000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>22000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>40000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>20000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-190000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>33000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>19000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>14000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>13000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>14000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>20000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>28000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-9000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-7000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>8000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-5000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2101000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1986000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2088000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2188000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1515000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2262000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3329000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2712000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3026000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2559000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1962000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2140000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1237000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>546000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-144000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>976000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>296000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1066000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>676000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>731000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1787000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2135000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1938000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1950000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1348000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1125000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>994000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1266000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1007000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E22" s="3">
         <v>171000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>151000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>137000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>140000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>156000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>127000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>171000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>138000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>148000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>145000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>236000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>120000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>242000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>127000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>219000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>123000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>278000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>146000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>509000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>143000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>142000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>151000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>168000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>304000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>162000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>167000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>181000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>187000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1472000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1268000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1538000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1536000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>867000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1599000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2713000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1973000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2360000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1928000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1398000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1469000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>723000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-395000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-612000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>366000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-149000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>89000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>183000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-181000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1186000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1551000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1336000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1325000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>626000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>513000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>438000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>492000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>177000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>508000</v>
+      </c>
+      <c r="E24" s="3">
         <v>539000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>499000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>557000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>315000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>571000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>824000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>625000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>628000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>603000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>443000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>611000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>297000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>36000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-60000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>329000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>91000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>90000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>105000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-429000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>522000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>515000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>506000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>529000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>387000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>186000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>174000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>292000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-114000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2205,186 +2254,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>964000</v>
+      </c>
+      <c r="E26" s="3">
         <v>729000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1039000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>979000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>552000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1028000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1889000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1348000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1732000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1325000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>955000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>858000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>426000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-431000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-552000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>37000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-240000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>78000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>248000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>664000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1036000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>830000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>796000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>239000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>327000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>264000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>200000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>449000</v>
+      </c>
+      <c r="E27" s="3">
         <v>338000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>663000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>696000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>399000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>836000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1526000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1105000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1395000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1079000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>718000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>708000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>326000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-438000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-494000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-211000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-42000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>30000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>359000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>556000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>870000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>699000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>631000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>274000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>257000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>190000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>313000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>242000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2472,8 +2530,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2501,14 +2562,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2520,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="S29" s="3">
         <v>1000</v>
@@ -2532,37 +2593,40 @@
         <v>1000</v>
       </c>
       <c r="V29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W29" s="3">
         <v>127000</v>
-      </c>
-      <c r="W29" s="3">
-        <v>-4000</v>
       </c>
       <c r="X29" s="3">
         <v>-4000</v>
       </c>
       <c r="Y29" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-11000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>409000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>3000</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>8000</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>35000</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>-21000</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2650,8 +2714,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2739,186 +2806,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-24000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-88000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-140000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-25000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-11000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-31000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>161000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-36000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-22000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-20000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>190000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-33000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-19000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-14000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-13000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-14000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-20000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-28000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>9000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>7000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-8000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>5000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>449000</v>
+      </c>
+      <c r="E33" s="3">
         <v>338000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>663000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>696000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>399000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>836000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1526000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1105000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1395000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1079000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>718000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>708000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>326000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-438000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-494000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-210000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-41000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>31000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>486000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>552000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>866000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>688000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1040000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>277000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>265000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>225000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>292000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3006,191 +3082,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>449000</v>
+      </c>
+      <c r="E35" s="3">
         <v>338000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>663000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>696000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>399000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>836000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1526000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1105000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1395000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1079000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>718000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>708000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>326000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-438000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-494000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-210000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-41000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>31000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>486000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>552000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>866000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>688000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1040000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>277000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>265000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>225000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>292000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3222,8 +3307,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3255,97 +3341,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5745000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6683000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6852000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8146000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8578000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9492000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8338000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8068000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7672000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6313000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4580000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3657000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2403000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1465000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1602000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2020000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2247000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2623000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2833000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4217000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4556000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3859000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3702000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4526000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4957000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4667000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4001000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>4245000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>1108000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3433,364 +3523,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1280000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1092000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1684000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1795000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1329000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1412000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1981000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1742000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1522000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1678000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1770000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1412000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1357000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1363000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1093000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1101000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>994000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>944000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1121000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1319000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1282000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1302000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1444000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1514000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1546000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1434000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1399000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1975000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5949000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5810000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5737000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5180000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4819000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4670000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4454000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4497000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4120000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4218000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4145000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3893000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3892000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3810000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3854000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4073000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4434000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4377000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4461000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4759000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4047000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4176000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3885000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4149000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3857000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3642000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3763000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>3642000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>3685000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1103000</v>
+      </c>
+      <c r="E45" s="3">
         <v>472000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>473000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>492000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>647000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>608000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>529000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>523000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>477000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>390000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>361000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>341000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>419000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>517000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>808000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>721000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>672000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>786000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>630000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>425000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1036000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1006000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1075000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>945000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>790000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>674000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>604000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>573000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>4962000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14077000</v>
+      </c>
+      <c r="E46" s="3">
         <v>14057000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14746000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15613000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15373000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16182000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15302000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>14830000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13791000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12599000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10856000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9303000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8071000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7155000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7357000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7915000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8347000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8730000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9045000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10720000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>10921000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>10343000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>10106000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>10626000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>11150000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>10417000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>9767000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>10435000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>11505000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3878,97 +3983,103 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>34535000</v>
+      </c>
+      <c r="E48" s="3">
         <v>33845000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>33159000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>32627000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>31814000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31200000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>30708000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>30345000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>30102000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29836000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29775000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>29818000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>29911000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29936000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>29899000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>29584000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>29330000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>28841000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>28497000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>28010000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>23013000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>22923000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>22792000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>23002000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>22934000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>23115000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>23174000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>23293000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>26038000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4056,8 +4167,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4145,8 +4259,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4234,97 +4351,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3036000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3005000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3004000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2853000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2740000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2731000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2822000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2847000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3024000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3001000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3012000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3023000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3117000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3139000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2963000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3310000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3266000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3515000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3517000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3486000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3815000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3762000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3739000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3682000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3243000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>3511000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>3635000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>3589000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>3857000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4412,97 +4535,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>51648000</v>
+      </c>
+      <c r="E54" s="3">
         <v>50907000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>50909000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>51093000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>49927000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>50113000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>48832000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>48022000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>46917000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45436000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>43643000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>42144000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>41099000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>40230000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>40219000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>40809000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>40943000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>41086000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>41059000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>42216000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>37749000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>37028000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>36637000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>37302000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>37327000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>37043000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>36576000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>37317000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>41400000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4534,8 +4663,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4567,426 +4697,439 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3724000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3642000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3836000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3989000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3947000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3853000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3163000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3495000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2949000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3106000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2866000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2670000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2533000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2471000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2374000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2532000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2686000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2645000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2553000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2608000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2383000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2420000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2208000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2441000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2098000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1880000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1780000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>2393000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>2347000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E58" s="3">
         <v>37000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>49000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1037000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1032000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1038000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1365000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>372000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>897000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1057000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>656000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>34000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>47000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>90000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>245000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>4000</v>
       </c>
       <c r="T58" s="3">
         <v>4000</v>
       </c>
       <c r="U58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="V58" s="3">
         <v>3000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>17000</v>
-      </c>
-      <c r="W58" s="3">
-        <v>4000</v>
       </c>
       <c r="X58" s="3">
         <v>4000</v>
       </c>
       <c r="Y58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Z58" s="3">
         <v>483000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1414000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2215000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2216000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>2228000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1232000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>802000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1101000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1109000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1396000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1319000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1020000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1041000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1926000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2025000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1677000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1364000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1089000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>713000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>516000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>345000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>524000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>672000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>691000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>637000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>691000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>704000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1464000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1375000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1653000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1382000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1204000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>848000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>834000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>640000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1339000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4860000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4788000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5281000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6345000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5999000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5932000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6454000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5892000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5523000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5527000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4611000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3417000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3096000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2906000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3143000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3209000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3381000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3286000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3247000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3329000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3851000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3799000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4344000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4914000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5517000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4944000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4842000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>4265000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>4488000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9370000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9458000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9586000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9583000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9658000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10054000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8256000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9078000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8768000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8638000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9153000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9677000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9983000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9824000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9829000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9821000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9915000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9912000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9902000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>11124000</v>
-      </c>
-      <c r="W61" s="3">
-        <v>11123000</v>
       </c>
       <c r="X61" s="3">
         <v>11123000</v>
@@ -4995,114 +5138,120 @@
         <v>11123000</v>
       </c>
       <c r="Z61" s="3">
+        <v>11123000</v>
+      </c>
+      <c r="AA61" s="3">
         <v>11815000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>12567000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>13138000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>13135000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>14795000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>18180000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10741000</v>
+      </c>
+      <c r="E62" s="3">
         <v>10634000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10394000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10294000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10089000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>10080000</v>
       </c>
       <c r="I62" s="3">
         <v>10080000</v>
       </c>
       <c r="J62" s="3">
+        <v>10080000</v>
+      </c>
+      <c r="K62" s="3">
         <v>10033000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10095000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10336000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10306000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10382000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10458000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10345000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10284000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10331000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10105000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>10071000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>10069000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9871000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9321000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9264000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9244000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9277000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>9013000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>8968000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>9012000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>9000000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>8892000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5190,8 +5339,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5279,8 +5431,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5368,97 +5523,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>35189000</v>
+      </c>
+      <c r="E66" s="3">
         <v>34705000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>34852000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>35538000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34973000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>35224000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>33966000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>34042000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33564000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33425000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32723000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31970000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31863000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31276000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>31364000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>31511000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>31499000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>31377000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>31276000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>32418000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>27772000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>27554000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>27981000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>29325000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>30354000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>30370000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>30258000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>31266000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>36668000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5490,8 +5651,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5579,8 +5741,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5668,8 +5833,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5757,8 +5925,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5846,97 +6017,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2447000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2901000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3244000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3907000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4604000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5008000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5848000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7375000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8481000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9880000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10963000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11681000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12389000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12718000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12771000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12280000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12289000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12082000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12010000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-12041000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-12526000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-13161000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-14030000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-14722000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-15763000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-16043000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-16311000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-16540000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-16832000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6024,8 +6201,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6113,8 +6293,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6202,97 +6385,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16459000</v>
+      </c>
+      <c r="E76" s="3">
         <v>16202000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16057000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15555000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14954000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14889000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14866000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13980000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13353000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12011000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10920000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10174000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9236000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8954000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8855000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9298000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9444000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9709000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9783000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9798000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9977000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9474000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>8656000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7977000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6973000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>6673000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>6318000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>6051000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>4732000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6380,191 +6569,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>449000</v>
+      </c>
+      <c r="E81" s="3">
         <v>338000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>663000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>696000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>399000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>836000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1526000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1105000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1395000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1079000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>718000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>708000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>326000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-438000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-494000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-210000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-41000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>31000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>486000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>552000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>866000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>688000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1040000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>277000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>265000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>225000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>292000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6596,97 +6794,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>533000</v>
+      </c>
+      <c r="E83" s="3">
         <v>547000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>399000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>515000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>508000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>507000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>489000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>568000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>528000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>483000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>419000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>435000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>394000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>699000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>341000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>391000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>322000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>699000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>347000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>403000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>458000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>442000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>451000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>457000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>418000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>450000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>389000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>593000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>643000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6774,8 +6976,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6863,8 +7068,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6952,8 +7160,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7041,8 +7252,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7130,97 +7344,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1236000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1673000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1050000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1069000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>758000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1621000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1691000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2280000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1965000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2395000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1075000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1327000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1237000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>453000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-38000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>170000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>224000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1088000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>534000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-62000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1247000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1309000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1369000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1664000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1189000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1037000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>792000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1135000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>980000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7252,73 +7472,74 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1118000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1119000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1077000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1001000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-802000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-816000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-696000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-823000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-523000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4000</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-1000</v>
       </c>
       <c r="Y91" s="3">
         <v>-1000</v>
@@ -7327,22 +7548,25 @@
         <v>-1000</v>
       </c>
       <c r="AA91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-688000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-329000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-494000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7430,8 +7654,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7519,97 +7746,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1219000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1201000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1164000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1059000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-851000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-816000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-714000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-733000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-398000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-465000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-368000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>169000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-407000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1026000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-546000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-278000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-658000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1167000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-546000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3546000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-502000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-478000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-492000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-367000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-251000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-342000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-361000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>4444000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-359000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7641,8 +7874,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7650,32 +7884,32 @@
         <v>-215000</v>
       </c>
       <c r="E96" s="3">
+        <v>-215000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-217000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-214000</v>
       </c>
       <c r="G96" s="3">
         <v>-214000</v>
       </c>
       <c r="H96" s="3">
+        <v>-214000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-218000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-220000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-111000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-109000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-111000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -7683,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <v>-73000</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-73000</v>
@@ -7692,26 +7926,26 @@
         <v>-73000</v>
       </c>
       <c r="S96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-72000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-146000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-73000</v>
       </c>
       <c r="V96" s="3">
         <v>-73000</v>
       </c>
       <c r="W96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-72000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-73000</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
@@ -7719,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="AB96" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="AC96" s="3">
         <v>-1000</v>
@@ -7728,10 +7962,13 @@
         <v>-1000</v>
       </c>
       <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+        <v>-1000</v>
+      </c>
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7819,8 +8056,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7908,8 +8148,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7997,97 +8240,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-414000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-640000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1172000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-444000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-828000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>352000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-703000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1152000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-217000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-196000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>225000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-248000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>96000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>24000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>173000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-126000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-60000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1370000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1331000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3240000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-63000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-689000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1588000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1768000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-583000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-25000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-679000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-2418000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8142,126 +8391,132 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-55000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>11000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>12000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>32000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>45000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-52000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>8000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-6000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-397000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-168000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1286000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-434000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-921000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1157000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>274000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>395000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1350000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1734000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>932000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1248000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>926000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-549000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-411000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-234000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-494000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1449000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-423000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>693000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>154000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-679000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-436000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>297000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>669000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-240000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>3155000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>756000</v>
       </c>
     </row>
